--- a/案例教学系统/受控文档/总评审/打分表文件/PRD2018-G02-QFD打分表.xlsx
+++ b/案例教学系统/受控文档/总评审/打分表文件/PRD2018-G02-QFD打分表.xlsx
@@ -1223,7 +1223,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1345,29 +1345,29 @@
         <v>8</v>
       </c>
       <c r="D7" s="6">
-        <f t="shared" ref="D7:D38" si="0">(B7+C7)/2</f>
+        <f>(B7+C7)/2</f>
         <v>8</v>
       </c>
       <c r="E7" s="7">
-        <f t="shared" ref="E7:E38" si="1">D7/(SUM($D$7:$D$184))</f>
+        <f>D7/(SUM($D$7:$D$184))</f>
         <v>7.1524362986142157E-3</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
       <c r="G7" s="7">
-        <f t="shared" ref="G7:G38" si="2">F7/(SUM($F$7:$F$184))</f>
+        <f>F7/(SUM($F$7:$F$184))</f>
         <v>2.1097046413502108E-3</v>
       </c>
       <c r="H7">
         <v>2</v>
       </c>
       <c r="I7" s="7">
-        <f t="shared" ref="I7:I38" si="3">H7/(SUM($H$7:$H$184))</f>
+        <f>H7/(SUM($H$7:$H$184))</f>
         <v>2.5641025641025641E-3</v>
       </c>
       <c r="J7" s="5">
-        <f t="shared" ref="J7:J38" si="4">E7/(G7+I7)</f>
+        <f>E7/(G7+I7)</f>
         <v>1.5303233497243334</v>
       </c>
     </row>
@@ -1382,29 +1382,29 @@
         <v>9</v>
       </c>
       <c r="D8" s="6">
-        <f t="shared" si="0"/>
+        <f>(B8+C8)/2</f>
         <v>7.5</v>
       </c>
       <c r="E8" s="7">
-        <f t="shared" si="1"/>
+        <f>D8/(SUM($D$7:$D$184))</f>
         <v>6.7054090299508273E-3</v>
       </c>
       <c r="F8">
         <v>3</v>
       </c>
       <c r="G8" s="7">
-        <f t="shared" si="2"/>
+        <f>F8/(SUM($F$7:$F$184))</f>
         <v>3.1645569620253164E-3</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8" s="7">
-        <f t="shared" si="3"/>
+        <f>H8/(SUM($H$7:$H$184))</f>
         <v>1.2820512820512821E-3</v>
       </c>
       <c r="J8" s="5">
-        <f t="shared" si="4"/>
+        <f>E8/(G8+I8)</f>
         <v>1.5079828628670437</v>
       </c>
     </row>
@@ -1419,29 +1419,29 @@
         <v>7</v>
       </c>
       <c r="D9" s="6">
-        <f t="shared" si="0"/>
+        <f>(B9+C9)/2</f>
         <v>7</v>
       </c>
       <c r="E9" s="7">
-        <f t="shared" si="1"/>
+        <f>D9/(SUM($D$7:$D$184))</f>
         <v>6.2583817612874388E-3</v>
       </c>
       <c r="F9">
         <v>3</v>
       </c>
       <c r="G9" s="7">
-        <f t="shared" si="2"/>
+        <f>F9/(SUM($F$7:$F$184))</f>
         <v>3.1645569620253164E-3</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9" s="7">
-        <f t="shared" si="3"/>
+        <f>H9/(SUM($H$7:$H$184))</f>
         <v>1.2820512820512821E-3</v>
       </c>
       <c r="J9" s="5">
-        <f t="shared" si="4"/>
+        <f>E9/(G9+I9)</f>
         <v>1.4074506720092408</v>
       </c>
     </row>
@@ -1456,29 +1456,29 @@
         <v>8</v>
       </c>
       <c r="D10" s="6">
-        <f t="shared" si="0"/>
+        <f>(B10+C10)/2</f>
         <v>7</v>
       </c>
       <c r="E10" s="7">
-        <f t="shared" si="1"/>
+        <f>D10/(SUM($D$7:$D$184))</f>
         <v>6.2583817612874388E-3</v>
       </c>
       <c r="F10">
         <v>3</v>
       </c>
       <c r="G10" s="7">
-        <f t="shared" si="2"/>
+        <f>F10/(SUM($F$7:$F$184))</f>
         <v>3.1645569620253164E-3</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10" s="7">
-        <f t="shared" si="3"/>
+        <f>H10/(SUM($H$7:$H$184))</f>
         <v>1.2820512820512821E-3</v>
       </c>
       <c r="J10" s="5">
-        <f t="shared" si="4"/>
+        <f>E10/(G10+I10)</f>
         <v>1.4074506720092408</v>
       </c>
     </row>
@@ -1493,29 +1493,29 @@
         <v>8</v>
       </c>
       <c r="D11" s="6">
-        <f t="shared" si="0"/>
+        <f>(B11+C11)/2</f>
         <v>8</v>
       </c>
       <c r="E11" s="7">
-        <f t="shared" si="1"/>
+        <f>D11/(SUM($D$7:$D$184))</f>
         <v>7.1524362986142157E-3</v>
       </c>
       <c r="F11">
         <v>3</v>
       </c>
       <c r="G11" s="7">
-        <f t="shared" si="2"/>
+        <f>F11/(SUM($F$7:$F$184))</f>
         <v>3.1645569620253164E-3</v>
       </c>
       <c r="H11">
         <v>2</v>
       </c>
       <c r="I11" s="7">
-        <f t="shared" si="3"/>
+        <f>H11/(SUM($H$7:$H$184))</f>
         <v>2.5641025641025641E-3</v>
       </c>
       <c r="J11" s="5">
-        <f t="shared" si="4"/>
+        <f>E11/(G11+I11)</f>
         <v>1.2485357640810424</v>
       </c>
     </row>
@@ -1530,29 +1530,29 @@
         <v>9</v>
       </c>
       <c r="D12" s="6">
-        <f t="shared" si="0"/>
+        <f>(B12+C12)/2</f>
         <v>9</v>
       </c>
       <c r="E12" s="7">
-        <f t="shared" si="1"/>
+        <f>D12/(SUM($D$7:$D$184))</f>
         <v>8.0464908359409917E-3</v>
       </c>
       <c r="F12">
         <v>4</v>
       </c>
       <c r="G12" s="7">
-        <f t="shared" si="2"/>
+        <f>F12/(SUM($F$7:$F$184))</f>
         <v>4.2194092827004216E-3</v>
       </c>
       <c r="H12">
         <v>2</v>
       </c>
       <c r="I12" s="7">
-        <f t="shared" si="3"/>
+        <f>H12/(SUM($H$7:$H$184))</f>
         <v>2.5641025641025641E-3</v>
       </c>
       <c r="J12" s="5">
-        <f t="shared" si="4"/>
+        <f>E12/(G12+I12)</f>
         <v>1.1861836490686217</v>
       </c>
     </row>
@@ -1567,29 +1567,29 @@
         <v>7</v>
       </c>
       <c r="D13" s="6">
-        <f t="shared" si="0"/>
+        <f>(B13+C13)/2</f>
         <v>7.5</v>
       </c>
       <c r="E13" s="7">
-        <f t="shared" si="1"/>
+        <f>D13/(SUM($D$7:$D$184))</f>
         <v>6.7054090299508273E-3</v>
       </c>
       <c r="F13">
         <v>3</v>
       </c>
       <c r="G13" s="7">
-        <f t="shared" si="2"/>
+        <f>F13/(SUM($F$7:$F$184))</f>
         <v>3.1645569620253164E-3</v>
       </c>
       <c r="H13">
         <v>2</v>
       </c>
       <c r="I13" s="7">
-        <f t="shared" si="3"/>
+        <f>H13/(SUM($H$7:$H$184))</f>
         <v>2.5641025641025641E-3</v>
       </c>
       <c r="J13" s="5">
-        <f t="shared" si="4"/>
+        <f>E13/(G13+I13)</f>
         <v>1.1705022788259773</v>
       </c>
     </row>
@@ -1604,29 +1604,29 @@
         <v>8</v>
       </c>
       <c r="D14" s="6">
-        <f t="shared" si="0"/>
+        <f>(B14+C14)/2</f>
         <v>7.5</v>
       </c>
       <c r="E14" s="7">
-        <f t="shared" si="1"/>
+        <f>D14/(SUM($D$7:$D$184))</f>
         <v>6.7054090299508273E-3</v>
       </c>
       <c r="F14">
         <v>4</v>
       </c>
       <c r="G14" s="7">
-        <f t="shared" si="2"/>
+        <f>F14/(SUM($F$7:$F$184))</f>
         <v>4.2194092827004216E-3</v>
       </c>
       <c r="H14">
         <v>2</v>
       </c>
       <c r="I14" s="7">
-        <f t="shared" si="3"/>
+        <f>H14/(SUM($H$7:$H$184))</f>
         <v>2.5641025641025641E-3</v>
       </c>
       <c r="J14" s="5">
-        <f t="shared" si="4"/>
+        <f>E14/(G14+I14)</f>
         <v>0.98848637422385166</v>
       </c>
     </row>
@@ -1641,29 +1641,29 @@
         <v>8</v>
       </c>
       <c r="D15" s="6">
-        <f t="shared" si="0"/>
+        <f>(B15+C15)/2</f>
         <v>7.5</v>
       </c>
       <c r="E15" s="7">
-        <f t="shared" si="1"/>
+        <f>D15/(SUM($D$7:$D$184))</f>
         <v>6.7054090299508273E-3</v>
       </c>
       <c r="F15">
         <v>4</v>
       </c>
       <c r="G15" s="7">
-        <f t="shared" si="2"/>
+        <f>F15/(SUM($F$7:$F$184))</f>
         <v>4.2194092827004216E-3</v>
       </c>
       <c r="H15">
         <v>2</v>
       </c>
       <c r="I15" s="7">
-        <f t="shared" si="3"/>
+        <f>H15/(SUM($H$7:$H$184))</f>
         <v>2.5641025641025641E-3</v>
       </c>
       <c r="J15" s="5">
-        <f t="shared" si="4"/>
+        <f>E15/(G15+I15)</f>
         <v>0.98848637422385166</v>
       </c>
     </row>
@@ -1678,29 +1678,29 @@
         <v>5</v>
       </c>
       <c r="D16" s="6">
-        <f t="shared" si="0"/>
+        <f>(B16+C16)/2</f>
         <v>5</v>
       </c>
       <c r="E16" s="7">
-        <f t="shared" si="1"/>
+        <f>D16/(SUM($D$7:$D$184))</f>
         <v>4.4702726866338843E-3</v>
       </c>
       <c r="F16">
         <v>2</v>
       </c>
       <c r="G16" s="7">
-        <f t="shared" si="2"/>
+        <f>F16/(SUM($F$7:$F$184))</f>
         <v>2.1097046413502108E-3</v>
       </c>
       <c r="H16">
         <v>2</v>
       </c>
       <c r="I16" s="7">
-        <f t="shared" si="3"/>
+        <f>H16/(SUM($H$7:$H$184))</f>
         <v>2.5641025641025641E-3</v>
       </c>
       <c r="J16" s="5">
-        <f t="shared" si="4"/>
+        <f>E16/(G16+I16)</f>
         <v>0.95645209357770822</v>
       </c>
     </row>
@@ -1715,29 +1715,29 @@
         <v>7</v>
       </c>
       <c r="D17" s="6">
-        <f t="shared" si="0"/>
+        <f>(B17+C17)/2</f>
         <v>7</v>
       </c>
       <c r="E17" s="7">
-        <f t="shared" si="1"/>
+        <f>D17/(SUM($D$7:$D$184))</f>
         <v>6.2583817612874388E-3</v>
       </c>
       <c r="F17">
         <v>4</v>
       </c>
       <c r="G17" s="7">
-        <f t="shared" si="2"/>
+        <f>F17/(SUM($F$7:$F$184))</f>
         <v>4.2194092827004216E-3</v>
       </c>
       <c r="H17">
         <v>2</v>
       </c>
       <c r="I17" s="7">
-        <f t="shared" si="3"/>
+        <f>H17/(SUM($H$7:$H$184))</f>
         <v>2.5641025641025641E-3</v>
       </c>
       <c r="J17" s="5">
-        <f t="shared" si="4"/>
+        <f>E17/(G17+I17)</f>
         <v>0.92258728260892819</v>
       </c>
     </row>
@@ -1752,29 +1752,29 @@
         <v>8</v>
       </c>
       <c r="D18" s="6">
-        <f t="shared" si="0"/>
+        <f>(B18+C18)/2</f>
         <v>8</v>
       </c>
       <c r="E18" s="7">
-        <f t="shared" si="1"/>
+        <f>D18/(SUM($D$7:$D$184))</f>
         <v>7.1524362986142157E-3</v>
       </c>
       <c r="F18">
         <v>5</v>
       </c>
       <c r="G18" s="7">
-        <f t="shared" si="2"/>
+        <f>F18/(SUM($F$7:$F$184))</f>
         <v>5.2742616033755272E-3</v>
       </c>
       <c r="H18">
         <v>2</v>
       </c>
       <c r="I18" s="7">
-        <f t="shared" si="3"/>
+        <f>H18/(SUM($H$7:$H$184))</f>
         <v>2.5641025641025641E-3</v>
       </c>
       <c r="J18" s="5">
-        <f t="shared" si="4"/>
+        <f>E18/(G18+I18)</f>
         <v>0.91249094145053422</v>
       </c>
     </row>
@@ -1789,29 +1789,29 @@
         <v>7</v>
       </c>
       <c r="D19" s="6">
-        <f t="shared" si="0"/>
+        <f>(B19+C19)/2</f>
         <v>7</v>
       </c>
       <c r="E19" s="7">
-        <f t="shared" si="1"/>
+        <f>D19/(SUM($D$7:$D$184))</f>
         <v>6.2583817612874388E-3</v>
       </c>
       <c r="F19">
         <v>3</v>
       </c>
       <c r="G19" s="7">
-        <f t="shared" si="2"/>
+        <f>F19/(SUM($F$7:$F$184))</f>
         <v>3.1645569620253164E-3</v>
       </c>
       <c r="H19">
         <v>3</v>
       </c>
       <c r="I19" s="7">
-        <f t="shared" si="3"/>
+        <f>H19/(SUM($H$7:$H$184))</f>
         <v>3.8461538461538464E-3</v>
       </c>
       <c r="J19" s="5">
-        <f t="shared" si="4"/>
+        <f>E19/(G19+I19)</f>
         <v>0.89268862067252774</v>
       </c>
     </row>
@@ -1826,29 +1826,29 @@
         <v>8</v>
       </c>
       <c r="D20" s="6">
-        <f t="shared" si="0"/>
+        <f>(B20+C20)/2</f>
         <v>7</v>
       </c>
       <c r="E20" s="7">
-        <f t="shared" si="1"/>
+        <f>D20/(SUM($D$7:$D$184))</f>
         <v>6.2583817612874388E-3</v>
       </c>
       <c r="F20">
         <v>3</v>
       </c>
       <c r="G20" s="7">
-        <f t="shared" si="2"/>
+        <f>F20/(SUM($F$7:$F$184))</f>
         <v>3.1645569620253164E-3</v>
       </c>
       <c r="H20">
         <v>3</v>
       </c>
       <c r="I20" s="7">
-        <f t="shared" si="3"/>
+        <f>H20/(SUM($H$7:$H$184))</f>
         <v>3.8461538461538464E-3</v>
       </c>
       <c r="J20" s="5">
-        <f t="shared" si="4"/>
+        <f>E20/(G20+I20)</f>
         <v>0.89268862067252774</v>
       </c>
     </row>
@@ -1863,29 +1863,29 @@
         <v>8</v>
       </c>
       <c r="D21" s="6">
-        <f t="shared" si="0"/>
+        <f>(B21+C21)/2</f>
         <v>8</v>
       </c>
       <c r="E21" s="7">
-        <f t="shared" si="1"/>
+        <f>D21/(SUM($D$7:$D$184))</f>
         <v>7.1524362986142157E-3</v>
       </c>
       <c r="F21">
         <v>4</v>
       </c>
       <c r="G21" s="7">
-        <f t="shared" si="2"/>
+        <f>F21/(SUM($F$7:$F$184))</f>
         <v>4.2194092827004216E-3</v>
       </c>
       <c r="H21">
         <v>3</v>
       </c>
       <c r="I21" s="7">
-        <f t="shared" si="3"/>
+        <f>H21/(SUM($H$7:$H$184))</f>
         <v>3.8461538461538464E-3</v>
       </c>
       <c r="J21" s="5">
-        <f t="shared" si="4"/>
+        <f>E21/(G21+I21)</f>
         <v>0.88678697126882888</v>
       </c>
     </row>
@@ -1900,29 +1900,29 @@
         <v>8</v>
       </c>
       <c r="D22" s="6">
-        <f t="shared" si="0"/>
+        <f>(B22+C22)/2</f>
         <v>8</v>
       </c>
       <c r="E22" s="7">
-        <f t="shared" si="1"/>
+        <f>D22/(SUM($D$7:$D$184))</f>
         <v>7.1524362986142157E-3</v>
       </c>
       <c r="F22">
         <v>4</v>
       </c>
       <c r="G22" s="7">
-        <f t="shared" si="2"/>
+        <f>F22/(SUM($F$7:$F$184))</f>
         <v>4.2194092827004216E-3</v>
       </c>
       <c r="H22">
         <v>3</v>
       </c>
       <c r="I22" s="7">
-        <f t="shared" si="3"/>
+        <f>H22/(SUM($H$7:$H$184))</f>
         <v>3.8461538461538464E-3</v>
       </c>
       <c r="J22" s="5">
-        <f t="shared" si="4"/>
+        <f>E22/(G22+I22)</f>
         <v>0.88678697126882888</v>
       </c>
     </row>
@@ -1937,29 +1937,29 @@
         <v>9</v>
       </c>
       <c r="D23" s="6">
-        <f t="shared" si="0"/>
+        <f>(B23+C23)/2</f>
         <v>8</v>
       </c>
       <c r="E23" s="7">
-        <f t="shared" si="1"/>
+        <f>D23/(SUM($D$7:$D$184))</f>
         <v>7.1524362986142157E-3</v>
       </c>
       <c r="F23">
         <v>3</v>
       </c>
       <c r="G23" s="7">
-        <f t="shared" si="2"/>
+        <f>F23/(SUM($F$7:$F$184))</f>
         <v>3.1645569620253164E-3</v>
       </c>
       <c r="H23">
         <v>4</v>
       </c>
       <c r="I23" s="7">
-        <f t="shared" si="3"/>
+        <f>H23/(SUM($H$7:$H$184))</f>
         <v>5.1282051282051282E-3</v>
       </c>
       <c r="J23" s="5">
-        <f t="shared" si="4"/>
+        <f>E23/(G23+I23)</f>
         <v>0.86249143780940896</v>
       </c>
     </row>
@@ -1974,29 +1974,29 @@
         <v>8</v>
       </c>
       <c r="D24" s="6">
-        <f t="shared" si="0"/>
+        <f>(B24+C24)/2</f>
         <v>8</v>
       </c>
       <c r="E24" s="7">
-        <f t="shared" si="1"/>
+        <f>D24/(SUM($D$7:$D$184))</f>
         <v>7.1524362986142157E-3</v>
       </c>
       <c r="F24">
         <v>5</v>
       </c>
       <c r="G24" s="7">
-        <f t="shared" si="2"/>
+        <f>F24/(SUM($F$7:$F$184))</f>
         <v>5.2742616033755272E-3</v>
       </c>
       <c r="H24">
         <v>3</v>
       </c>
       <c r="I24" s="7">
-        <f t="shared" si="3"/>
+        <f>H24/(SUM($H$7:$H$184))</f>
         <v>3.8461538461538464E-3</v>
       </c>
       <c r="J24" s="5">
-        <f t="shared" si="4"/>
+        <f>E24/(G24+I24)</f>
         <v>0.78422264185161561</v>
       </c>
     </row>
@@ -2011,29 +2011,29 @@
         <v>8</v>
       </c>
       <c r="D25" s="6">
-        <f t="shared" si="0"/>
+        <f>(B25+C25)/2</f>
         <v>8</v>
       </c>
       <c r="E25" s="7">
-        <f t="shared" si="1"/>
+        <f>D25/(SUM($D$7:$D$184))</f>
         <v>7.1524362986142157E-3</v>
       </c>
       <c r="F25">
         <v>4</v>
       </c>
       <c r="G25" s="7">
-        <f t="shared" si="2"/>
+        <f>F25/(SUM($F$7:$F$184))</f>
         <v>4.2194092827004216E-3</v>
       </c>
       <c r="H25">
         <v>4</v>
       </c>
       <c r="I25" s="7">
-        <f t="shared" si="3"/>
+        <f>H25/(SUM($H$7:$H$184))</f>
         <v>5.1282051282051282E-3</v>
       </c>
       <c r="J25" s="5">
-        <f t="shared" si="4"/>
+        <f>E25/(G25+I25)</f>
         <v>0.76516167486216669</v>
       </c>
     </row>
@@ -2048,29 +2048,29 @@
         <v>9</v>
       </c>
       <c r="D26" s="6">
-        <f t="shared" si="0"/>
+        <f>(B26+C26)/2</f>
         <v>8</v>
       </c>
       <c r="E26" s="7">
-        <f t="shared" si="1"/>
+        <f>D26/(SUM($D$7:$D$184))</f>
         <v>7.1524362986142157E-3</v>
       </c>
       <c r="F26">
         <v>4</v>
       </c>
       <c r="G26" s="7">
-        <f t="shared" si="2"/>
+        <f>F26/(SUM($F$7:$F$184))</f>
         <v>4.2194092827004216E-3</v>
       </c>
       <c r="H26">
         <v>4</v>
       </c>
       <c r="I26" s="7">
-        <f t="shared" si="3"/>
+        <f>H26/(SUM($H$7:$H$184))</f>
         <v>5.1282051282051282E-3</v>
       </c>
       <c r="J26" s="5">
-        <f t="shared" si="4"/>
+        <f>E26/(G26+I26)</f>
         <v>0.76516167486216669</v>
       </c>
     </row>
@@ -2085,29 +2085,29 @@
         <v>9</v>
       </c>
       <c r="D27" s="6">
-        <f t="shared" si="0"/>
+        <f>(B27+C27)/2</f>
         <v>8</v>
       </c>
       <c r="E27" s="7">
-        <f t="shared" si="1"/>
+        <f>D27/(SUM($D$7:$D$184))</f>
         <v>7.1524362986142157E-3</v>
       </c>
       <c r="F27">
         <v>4</v>
       </c>
       <c r="G27" s="7">
-        <f t="shared" si="2"/>
+        <f>F27/(SUM($F$7:$F$184))</f>
         <v>4.2194092827004216E-3</v>
       </c>
       <c r="H27">
         <v>4</v>
       </c>
       <c r="I27" s="7">
-        <f t="shared" si="3"/>
+        <f>H27/(SUM($H$7:$H$184))</f>
         <v>5.1282051282051282E-3</v>
       </c>
       <c r="J27" s="5">
-        <f t="shared" si="4"/>
+        <f>E27/(G27+I27)</f>
         <v>0.76516167486216669</v>
       </c>
     </row>
@@ -2122,29 +2122,29 @@
         <v>8</v>
       </c>
       <c r="D28" s="6">
-        <f t="shared" si="0"/>
+        <f>(B28+C28)/2</f>
         <v>7</v>
       </c>
       <c r="E28" s="7">
-        <f t="shared" si="1"/>
+        <f>D28/(SUM($D$7:$D$184))</f>
         <v>6.2583817612874388E-3</v>
       </c>
       <c r="F28">
         <v>3</v>
       </c>
       <c r="G28" s="7">
-        <f t="shared" si="2"/>
+        <f>F28/(SUM($F$7:$F$184))</f>
         <v>3.1645569620253164E-3</v>
       </c>
       <c r="H28">
         <v>4</v>
       </c>
       <c r="I28" s="7">
-        <f t="shared" si="3"/>
+        <f>H28/(SUM($H$7:$H$184))</f>
         <v>5.1282051282051282E-3</v>
       </c>
       <c r="J28" s="5">
-        <f t="shared" si="4"/>
+        <f>E28/(G28+I28)</f>
         <v>0.75468000808323277</v>
       </c>
     </row>
@@ -2159,29 +2159,29 @@
         <v>7</v>
       </c>
       <c r="D29" s="6">
-        <f t="shared" si="0"/>
+        <f>(B29+C29)/2</f>
         <v>6.5</v>
       </c>
       <c r="E29" s="7">
-        <f t="shared" si="1"/>
+        <f>D29/(SUM($D$7:$D$184))</f>
         <v>5.8113544926240504E-3</v>
       </c>
       <c r="F29">
         <v>5</v>
       </c>
       <c r="G29" s="7">
-        <f t="shared" si="2"/>
+        <f>F29/(SUM($F$7:$F$184))</f>
         <v>5.2742616033755272E-3</v>
       </c>
       <c r="H29">
         <v>2</v>
       </c>
       <c r="I29" s="7">
-        <f t="shared" si="3"/>
+        <f>H29/(SUM($H$7:$H$184))</f>
         <v>2.5641025641025641E-3</v>
       </c>
       <c r="J29" s="5">
-        <f t="shared" si="4"/>
+        <f>E29/(G29+I29)</f>
         <v>0.74139888992855907</v>
       </c>
     </row>
@@ -2196,29 +2196,29 @@
         <v>8</v>
       </c>
       <c r="D30" s="6">
-        <f t="shared" si="0"/>
+        <f>(B30+C30)/2</f>
         <v>7.5</v>
       </c>
       <c r="E30" s="7">
-        <f t="shared" si="1"/>
+        <f>D30/(SUM($D$7:$D$184))</f>
         <v>6.7054090299508273E-3</v>
       </c>
       <c r="F30">
         <v>4</v>
       </c>
       <c r="G30" s="7">
-        <f t="shared" si="2"/>
+        <f>F30/(SUM($F$7:$F$184))</f>
         <v>4.2194092827004216E-3</v>
       </c>
       <c r="H30">
         <v>4</v>
       </c>
       <c r="I30" s="7">
-        <f t="shared" si="3"/>
+        <f>H30/(SUM($H$7:$H$184))</f>
         <v>5.1282051282051282E-3</v>
       </c>
       <c r="J30" s="5">
-        <f t="shared" si="4"/>
+        <f>E30/(G30+I30)</f>
         <v>0.71733907018328125</v>
       </c>
     </row>
@@ -2233,29 +2233,29 @@
         <v>7</v>
       </c>
       <c r="D31" s="6">
-        <f t="shared" si="0"/>
+        <f>(B31+C31)/2</f>
         <v>6.5</v>
       </c>
       <c r="E31" s="7">
-        <f t="shared" si="1"/>
+        <f>D31/(SUM($D$7:$D$184))</f>
         <v>5.8113544926240504E-3</v>
       </c>
       <c r="F31">
         <v>3</v>
       </c>
       <c r="G31" s="7">
-        <f t="shared" si="2"/>
+        <f>F31/(SUM($F$7:$F$184))</f>
         <v>3.1645569620253164E-3</v>
       </c>
       <c r="H31">
         <v>4</v>
       </c>
       <c r="I31" s="7">
-        <f t="shared" si="3"/>
+        <f>H31/(SUM($H$7:$H$184))</f>
         <v>5.1282051282051282E-3</v>
       </c>
       <c r="J31" s="5">
-        <f t="shared" si="4"/>
+        <f>E31/(G31+I31)</f>
         <v>0.70077429322014473</v>
       </c>
     </row>
@@ -2270,29 +2270,29 @@
         <v>8</v>
       </c>
       <c r="D32" s="6">
-        <f t="shared" si="0"/>
+        <f>(B32+C32)/2</f>
         <v>8</v>
       </c>
       <c r="E32" s="7">
-        <f t="shared" si="1"/>
+        <f>D32/(SUM($D$7:$D$184))</f>
         <v>7.1524362986142157E-3</v>
       </c>
       <c r="F32">
         <v>5</v>
       </c>
       <c r="G32" s="7">
-        <f t="shared" si="2"/>
+        <f>F32/(SUM($F$7:$F$184))</f>
         <v>5.2742616033755272E-3</v>
       </c>
       <c r="H32">
         <v>4</v>
       </c>
       <c r="I32" s="7">
-        <f t="shared" si="3"/>
+        <f>H32/(SUM($H$7:$H$184))</f>
         <v>5.1282051282051282E-3</v>
       </c>
       <c r="J32" s="5">
-        <f t="shared" si="4"/>
+        <f>E32/(G32+I32)</f>
         <v>0.68757117741124485</v>
       </c>
     </row>
@@ -2307,29 +2307,29 @@
         <v>8</v>
       </c>
       <c r="D33" s="6">
-        <f t="shared" si="0"/>
+        <f>(B33+C33)/2</f>
         <v>8</v>
       </c>
       <c r="E33" s="7">
-        <f t="shared" si="1"/>
+        <f>D33/(SUM($D$7:$D$184))</f>
         <v>7.1524362986142157E-3</v>
       </c>
       <c r="F33">
         <v>5</v>
       </c>
       <c r="G33" s="7">
-        <f t="shared" si="2"/>
+        <f>F33/(SUM($F$7:$F$184))</f>
         <v>5.2742616033755272E-3</v>
       </c>
       <c r="H33">
         <v>4</v>
       </c>
       <c r="I33" s="7">
-        <f t="shared" si="3"/>
+        <f>H33/(SUM($H$7:$H$184))</f>
         <v>5.1282051282051282E-3</v>
       </c>
       <c r="J33" s="5">
-        <f t="shared" si="4"/>
+        <f>E33/(G33+I33)</f>
         <v>0.68757117741124485</v>
       </c>
     </row>
@@ -2344,29 +2344,29 @@
         <v>7</v>
       </c>
       <c r="D34" s="6">
-        <f t="shared" si="0"/>
+        <f>(B34+C34)/2</f>
         <v>7</v>
       </c>
       <c r="E34" s="7">
-        <f t="shared" si="1"/>
+        <f>D34/(SUM($D$7:$D$184))</f>
         <v>6.2583817612874388E-3</v>
       </c>
       <c r="F34">
         <v>5</v>
       </c>
       <c r="G34" s="7">
-        <f t="shared" si="2"/>
+        <f>F34/(SUM($F$7:$F$184))</f>
         <v>5.2742616033755272E-3</v>
       </c>
       <c r="H34">
         <v>3</v>
       </c>
       <c r="I34" s="7">
-        <f t="shared" si="3"/>
+        <f>H34/(SUM($H$7:$H$184))</f>
         <v>3.8461538461538464E-3</v>
       </c>
       <c r="J34" s="5">
-        <f t="shared" si="4"/>
+        <f>E34/(G34+I34)</f>
         <v>0.68619481162016371</v>
       </c>
     </row>
@@ -2381,29 +2381,29 @@
         <v>7</v>
       </c>
       <c r="D35" s="6">
-        <f t="shared" si="0"/>
+        <f>(B35+C35)/2</f>
         <v>7</v>
       </c>
       <c r="E35" s="7">
-        <f t="shared" si="1"/>
+        <f>D35/(SUM($D$7:$D$184))</f>
         <v>6.2583817612874388E-3</v>
       </c>
       <c r="F35">
         <v>5</v>
       </c>
       <c r="G35" s="7">
-        <f t="shared" si="2"/>
+        <f>F35/(SUM($F$7:$F$184))</f>
         <v>5.2742616033755272E-3</v>
       </c>
       <c r="H35">
         <v>3</v>
       </c>
       <c r="I35" s="7">
-        <f t="shared" si="3"/>
+        <f>H35/(SUM($H$7:$H$184))</f>
         <v>3.8461538461538464E-3</v>
       </c>
       <c r="J35" s="5">
-        <f t="shared" si="4"/>
+        <f>E35/(G35+I35)</f>
         <v>0.68619481162016371</v>
       </c>
     </row>
@@ -2418,29 +2418,29 @@
         <v>7</v>
       </c>
       <c r="D36" s="6">
-        <f t="shared" si="0"/>
+        <f>(B36+C36)/2</f>
         <v>7</v>
       </c>
       <c r="E36" s="7">
-        <f t="shared" si="1"/>
+        <f>D36/(SUM($D$7:$D$184))</f>
         <v>6.2583817612874388E-3</v>
       </c>
       <c r="F36">
         <v>5</v>
       </c>
       <c r="G36" s="7">
-        <f t="shared" si="2"/>
+        <f>F36/(SUM($F$7:$F$184))</f>
         <v>5.2742616033755272E-3</v>
       </c>
       <c r="H36">
         <v>3</v>
       </c>
       <c r="I36" s="7">
-        <f t="shared" si="3"/>
+        <f>H36/(SUM($H$7:$H$184))</f>
         <v>3.8461538461538464E-3</v>
       </c>
       <c r="J36" s="5">
-        <f t="shared" si="4"/>
+        <f>E36/(G36+I36)</f>
         <v>0.68619481162016371</v>
       </c>
     </row>
@@ -2455,29 +2455,29 @@
         <v>7</v>
       </c>
       <c r="D37" s="6">
-        <f t="shared" si="0"/>
+        <f>(B37+C37)/2</f>
         <v>7</v>
       </c>
       <c r="E37" s="7">
-        <f t="shared" si="1"/>
+        <f>D37/(SUM($D$7:$D$184))</f>
         <v>6.2583817612874388E-3</v>
       </c>
       <c r="F37">
         <v>5</v>
       </c>
       <c r="G37" s="7">
-        <f t="shared" si="2"/>
+        <f>F37/(SUM($F$7:$F$184))</f>
         <v>5.2742616033755272E-3</v>
       </c>
       <c r="H37">
         <v>3</v>
       </c>
       <c r="I37" s="7">
-        <f t="shared" si="3"/>
+        <f>H37/(SUM($H$7:$H$184))</f>
         <v>3.8461538461538464E-3</v>
       </c>
       <c r="J37" s="5">
-        <f t="shared" si="4"/>
+        <f>E37/(G37+I37)</f>
         <v>0.68619481162016371</v>
       </c>
     </row>
@@ -2492,29 +2492,29 @@
         <v>8</v>
       </c>
       <c r="D38" s="6">
-        <f t="shared" si="0"/>
+        <f>(B38+C38)/2</f>
         <v>8</v>
       </c>
       <c r="E38" s="7">
-        <f t="shared" si="1"/>
+        <f>D38/(SUM($D$7:$D$184))</f>
         <v>7.1524362986142157E-3</v>
       </c>
       <c r="F38">
         <v>4</v>
       </c>
       <c r="G38" s="7">
-        <f t="shared" si="2"/>
+        <f>F38/(SUM($F$7:$F$184))</f>
         <v>4.2194092827004216E-3</v>
       </c>
       <c r="H38">
         <v>5</v>
       </c>
       <c r="I38" s="7">
-        <f t="shared" si="3"/>
+        <f>H38/(SUM($H$7:$H$184))</f>
         <v>6.41025641025641E-3</v>
       </c>
       <c r="J38" s="5">
-        <f t="shared" si="4"/>
+        <f>E38/(G38+I38)</f>
         <v>0.67287499957344743</v>
       </c>
     </row>
@@ -2529,29 +2529,29 @@
         <v>7</v>
       </c>
       <c r="D39" s="6">
-        <f t="shared" ref="D39:D70" si="5">(B39+C39)/2</f>
+        <f>(B39+C39)/2</f>
         <v>7</v>
       </c>
       <c r="E39" s="7">
-        <f t="shared" ref="E39:E70" si="6">D39/(SUM($D$7:$D$184))</f>
+        <f>D39/(SUM($D$7:$D$184))</f>
         <v>6.2583817612874388E-3</v>
       </c>
       <c r="F39">
         <v>4</v>
       </c>
       <c r="G39" s="7">
-        <f t="shared" ref="G39:G70" si="7">F39/(SUM($F$7:$F$184))</f>
+        <f>F39/(SUM($F$7:$F$184))</f>
         <v>4.2194092827004216E-3</v>
       </c>
       <c r="H39">
         <v>4</v>
       </c>
       <c r="I39" s="7">
-        <f t="shared" ref="I39:I70" si="8">H39/(SUM($H$7:$H$184))</f>
+        <f>H39/(SUM($H$7:$H$184))</f>
         <v>5.1282051282051282E-3</v>
       </c>
       <c r="J39" s="5">
-        <f t="shared" ref="J39:J70" si="9">E39/(G39+I39)</f>
+        <f>E39/(G39+I39)</f>
         <v>0.66951646550439581</v>
       </c>
     </row>
@@ -2566,29 +2566,29 @@
         <v>8</v>
       </c>
       <c r="D40" s="6">
-        <f t="shared" si="5"/>
+        <f>(B40+C40)/2</f>
         <v>7</v>
       </c>
       <c r="E40" s="7">
-        <f t="shared" si="6"/>
+        <f>D40/(SUM($D$7:$D$184))</f>
         <v>6.2583817612874388E-3</v>
       </c>
       <c r="F40">
         <v>4</v>
       </c>
       <c r="G40" s="7">
-        <f t="shared" si="7"/>
+        <f>F40/(SUM($F$7:$F$184))</f>
         <v>4.2194092827004216E-3</v>
       </c>
       <c r="H40">
         <v>4</v>
       </c>
       <c r="I40" s="7">
-        <f t="shared" si="8"/>
+        <f>H40/(SUM($H$7:$H$184))</f>
         <v>5.1282051282051282E-3</v>
       </c>
       <c r="J40" s="5">
-        <f t="shared" si="9"/>
+        <f>E40/(G40+I40)</f>
         <v>0.66951646550439581</v>
       </c>
     </row>
@@ -2603,29 +2603,29 @@
         <v>8</v>
       </c>
       <c r="D41" s="6">
-        <f t="shared" si="5"/>
+        <f>(B41+C41)/2</f>
         <v>7</v>
       </c>
       <c r="E41" s="7">
-        <f t="shared" si="6"/>
+        <f>D41/(SUM($D$7:$D$184))</f>
         <v>6.2583817612874388E-3</v>
       </c>
       <c r="F41">
         <v>4</v>
       </c>
       <c r="G41" s="7">
-        <f t="shared" si="7"/>
+        <f>F41/(SUM($F$7:$F$184))</f>
         <v>4.2194092827004216E-3</v>
       </c>
       <c r="H41">
         <v>4</v>
       </c>
       <c r="I41" s="7">
-        <f t="shared" si="8"/>
+        <f>H41/(SUM($H$7:$H$184))</f>
         <v>5.1282051282051282E-3</v>
       </c>
       <c r="J41" s="5">
-        <f t="shared" si="9"/>
+        <f>E41/(G41+I41)</f>
         <v>0.66951646550439581</v>
       </c>
     </row>
@@ -2640,29 +2640,29 @@
         <v>8</v>
       </c>
       <c r="D42" s="6">
-        <f t="shared" si="5"/>
+        <f>(B42+C42)/2</f>
         <v>7</v>
       </c>
       <c r="E42" s="7">
-        <f t="shared" si="6"/>
+        <f>D42/(SUM($D$7:$D$184))</f>
         <v>6.2583817612874388E-3</v>
       </c>
       <c r="F42">
         <v>4</v>
       </c>
       <c r="G42" s="7">
-        <f t="shared" si="7"/>
+        <f>F42/(SUM($F$7:$F$184))</f>
         <v>4.2194092827004216E-3</v>
       </c>
       <c r="H42">
         <v>4</v>
       </c>
       <c r="I42" s="7">
-        <f t="shared" si="8"/>
+        <f>H42/(SUM($H$7:$H$184))</f>
         <v>5.1282051282051282E-3</v>
       </c>
       <c r="J42" s="5">
-        <f t="shared" si="9"/>
+        <f>E42/(G42+I42)</f>
         <v>0.66951646550439581</v>
       </c>
     </row>
@@ -2677,29 +2677,29 @@
         <v>8</v>
       </c>
       <c r="D43" s="6">
-        <f t="shared" si="5"/>
+        <f>(B43+C43)/2</f>
         <v>7</v>
       </c>
       <c r="E43" s="7">
-        <f t="shared" si="6"/>
+        <f>D43/(SUM($D$7:$D$184))</f>
         <v>6.2583817612874388E-3</v>
       </c>
       <c r="F43">
         <v>4</v>
       </c>
       <c r="G43" s="7">
-        <f t="shared" si="7"/>
+        <f>F43/(SUM($F$7:$F$184))</f>
         <v>4.2194092827004216E-3</v>
       </c>
       <c r="H43">
         <v>4</v>
       </c>
       <c r="I43" s="7">
-        <f t="shared" si="8"/>
+        <f>H43/(SUM($H$7:$H$184))</f>
         <v>5.1282051282051282E-3</v>
       </c>
       <c r="J43" s="5">
-        <f t="shared" si="9"/>
+        <f>E43/(G43+I43)</f>
         <v>0.66951646550439581</v>
       </c>
     </row>
@@ -2714,29 +2714,29 @@
         <v>6</v>
       </c>
       <c r="D44" s="6">
-        <f t="shared" si="5"/>
+        <f>(B44+C44)/2</f>
         <v>6</v>
       </c>
       <c r="E44" s="7">
-        <f t="shared" si="6"/>
+        <f>D44/(SUM($D$7:$D$184))</f>
         <v>5.364327223960662E-3</v>
       </c>
       <c r="F44">
         <v>4</v>
       </c>
       <c r="G44" s="7">
-        <f t="shared" si="7"/>
+        <f>F44/(SUM($F$7:$F$184))</f>
         <v>4.2194092827004216E-3</v>
       </c>
       <c r="H44">
         <v>3</v>
       </c>
       <c r="I44" s="7">
-        <f t="shared" si="8"/>
+        <f>H44/(SUM($H$7:$H$184))</f>
         <v>3.8461538461538464E-3</v>
       </c>
       <c r="J44" s="5">
-        <f t="shared" si="9"/>
+        <f>E44/(G44+I44)</f>
         <v>0.66509022845162169</v>
       </c>
     </row>
@@ -2751,29 +2751,29 @@
         <v>8</v>
       </c>
       <c r="D45" s="6">
-        <f t="shared" si="5"/>
+        <f>(B45+C45)/2</f>
         <v>7.5</v>
       </c>
       <c r="E45" s="7">
-        <f t="shared" si="6"/>
+        <f>D45/(SUM($D$7:$D$184))</f>
         <v>6.7054090299508273E-3</v>
       </c>
       <c r="F45">
         <v>5</v>
       </c>
       <c r="G45" s="7">
-        <f t="shared" si="7"/>
+        <f>F45/(SUM($F$7:$F$184))</f>
         <v>5.2742616033755272E-3</v>
       </c>
       <c r="H45">
         <v>4</v>
       </c>
       <c r="I45" s="7">
-        <f t="shared" si="8"/>
+        <f>H45/(SUM($H$7:$H$184))</f>
         <v>5.1282051282051282E-3</v>
       </c>
       <c r="J45" s="5">
-        <f t="shared" si="9"/>
+        <f>E45/(G45+I45)</f>
         <v>0.64459797882304204</v>
       </c>
     </row>
@@ -2788,29 +2788,29 @@
         <v>8</v>
       </c>
       <c r="D46" s="6">
-        <f t="shared" si="5"/>
+        <f>(B46+C46)/2</f>
         <v>7.5</v>
       </c>
       <c r="E46" s="7">
-        <f t="shared" si="6"/>
+        <f>D46/(SUM($D$7:$D$184))</f>
         <v>6.7054090299508273E-3</v>
       </c>
       <c r="F46">
         <v>5</v>
       </c>
       <c r="G46" s="7">
-        <f t="shared" si="7"/>
+        <f>F46/(SUM($F$7:$F$184))</f>
         <v>5.2742616033755272E-3</v>
       </c>
       <c r="H46">
         <v>4</v>
       </c>
       <c r="I46" s="7">
-        <f t="shared" si="8"/>
+        <f>H46/(SUM($H$7:$H$184))</f>
         <v>5.1282051282051282E-3</v>
       </c>
       <c r="J46" s="5">
-        <f t="shared" si="9"/>
+        <f>E46/(G46+I46)</f>
         <v>0.64459797882304204</v>
       </c>
     </row>
@@ -2825,29 +2825,29 @@
         <v>9</v>
       </c>
       <c r="D47" s="6">
-        <f t="shared" si="5"/>
+        <f>(B47+C47)/2</f>
         <v>7.5</v>
       </c>
       <c r="E47" s="7">
-        <f t="shared" si="6"/>
+        <f>D47/(SUM($D$7:$D$184))</f>
         <v>6.7054090299508273E-3</v>
       </c>
       <c r="F47">
         <v>5</v>
       </c>
       <c r="G47" s="7">
-        <f t="shared" si="7"/>
+        <f>F47/(SUM($F$7:$F$184))</f>
         <v>5.2742616033755272E-3</v>
       </c>
       <c r="H47">
         <v>4</v>
       </c>
       <c r="I47" s="7">
-        <f t="shared" si="8"/>
+        <f>H47/(SUM($H$7:$H$184))</f>
         <v>5.1282051282051282E-3</v>
       </c>
       <c r="J47" s="5">
-        <f t="shared" si="9"/>
+        <f>E47/(G47+I47)</f>
         <v>0.64459797882304204</v>
       </c>
     </row>
@@ -2862,29 +2862,29 @@
         <v>7</v>
       </c>
       <c r="D48" s="6">
-        <f t="shared" si="5"/>
+        <f>(B48+C48)/2</f>
         <v>6.5</v>
       </c>
       <c r="E48" s="7">
-        <f t="shared" si="6"/>
+        <f>D48/(SUM($D$7:$D$184))</f>
         <v>5.8113544926240504E-3</v>
       </c>
       <c r="F48">
         <v>5</v>
       </c>
       <c r="G48" s="7">
-        <f t="shared" si="7"/>
+        <f>F48/(SUM($F$7:$F$184))</f>
         <v>5.2742616033755272E-3</v>
       </c>
       <c r="H48">
         <v>3</v>
       </c>
       <c r="I48" s="7">
-        <f t="shared" si="8"/>
+        <f>H48/(SUM($H$7:$H$184))</f>
         <v>3.8461538461538464E-3</v>
       </c>
       <c r="J48" s="5">
-        <f t="shared" si="9"/>
+        <f>E48/(G48+I48)</f>
         <v>0.63718089650443765</v>
       </c>
     </row>
@@ -2899,29 +2899,29 @@
         <v>7</v>
       </c>
       <c r="D49" s="6">
-        <f t="shared" si="5"/>
+        <f>(B49+C49)/2</f>
         <v>6.5</v>
       </c>
       <c r="E49" s="7">
-        <f t="shared" si="6"/>
+        <f>D49/(SUM($D$7:$D$184))</f>
         <v>5.8113544926240504E-3</v>
       </c>
       <c r="F49">
         <v>5</v>
       </c>
       <c r="G49" s="7">
-        <f t="shared" si="7"/>
+        <f>F49/(SUM($F$7:$F$184))</f>
         <v>5.2742616033755272E-3</v>
       </c>
       <c r="H49">
         <v>3</v>
       </c>
       <c r="I49" s="7">
-        <f t="shared" si="8"/>
+        <f>H49/(SUM($H$7:$H$184))</f>
         <v>3.8461538461538464E-3</v>
       </c>
       <c r="J49" s="5">
-        <f t="shared" si="9"/>
+        <f>E49/(G49+I49)</f>
         <v>0.63718089650443765</v>
       </c>
     </row>
@@ -2936,29 +2936,29 @@
         <v>8</v>
       </c>
       <c r="D50" s="6">
-        <f t="shared" si="5"/>
+        <f>(B50+C50)/2</f>
         <v>7.5</v>
       </c>
       <c r="E50" s="7">
-        <f t="shared" si="6"/>
+        <f>D50/(SUM($D$7:$D$184))</f>
         <v>6.7054090299508273E-3</v>
       </c>
       <c r="F50">
         <v>4</v>
       </c>
       <c r="G50" s="7">
-        <f t="shared" si="7"/>
+        <f>F50/(SUM($F$7:$F$184))</f>
         <v>4.2194092827004216E-3</v>
       </c>
       <c r="H50">
         <v>5</v>
       </c>
       <c r="I50" s="7">
-        <f t="shared" si="8"/>
+        <f>H50/(SUM($H$7:$H$184))</f>
         <v>6.41025641025641E-3</v>
       </c>
       <c r="J50" s="5">
-        <f t="shared" si="9"/>
+        <f>E50/(G50+I50)</f>
         <v>0.63082031210010692</v>
       </c>
     </row>
@@ -2973,29 +2973,29 @@
         <v>4</v>
       </c>
       <c r="D51" s="6">
-        <f t="shared" si="5"/>
+        <f>(B51+C51)/2</f>
         <v>4</v>
       </c>
       <c r="E51" s="7">
-        <f t="shared" si="6"/>
+        <f>D51/(SUM($D$7:$D$184))</f>
         <v>3.5762181493071078E-3</v>
       </c>
       <c r="F51">
         <v>3</v>
       </c>
       <c r="G51" s="7">
-        <f t="shared" si="7"/>
+        <f>F51/(SUM($F$7:$F$184))</f>
         <v>3.1645569620253164E-3</v>
       </c>
       <c r="H51">
         <v>2</v>
       </c>
       <c r="I51" s="7">
-        <f t="shared" si="8"/>
+        <f>H51/(SUM($H$7:$H$184))</f>
         <v>2.5641025641025641E-3</v>
       </c>
       <c r="J51" s="5">
-        <f t="shared" si="9"/>
+        <f>E51/(G51+I51)</f>
         <v>0.62426788204052119</v>
       </c>
     </row>
@@ -3010,29 +3010,29 @@
         <v>7</v>
       </c>
       <c r="D52" s="6">
-        <f t="shared" si="5"/>
+        <f>(B52+C52)/2</f>
         <v>6.5</v>
       </c>
       <c r="E52" s="7">
-        <f t="shared" si="6"/>
+        <f>D52/(SUM($D$7:$D$184))</f>
         <v>5.8113544926240504E-3</v>
       </c>
       <c r="F52">
         <v>4</v>
       </c>
       <c r="G52" s="7">
-        <f t="shared" si="7"/>
+        <f>F52/(SUM($F$7:$F$184))</f>
         <v>4.2194092827004216E-3</v>
       </c>
       <c r="H52">
         <v>4</v>
       </c>
       <c r="I52" s="7">
-        <f t="shared" si="8"/>
+        <f>H52/(SUM($H$7:$H$184))</f>
         <v>5.1282051282051282E-3</v>
       </c>
       <c r="J52" s="5">
-        <f t="shared" si="9"/>
+        <f>E52/(G52+I52)</f>
         <v>0.62169386082551037</v>
       </c>
     </row>
@@ -3047,29 +3047,29 @@
         <v>7</v>
       </c>
       <c r="D53" s="6">
-        <f t="shared" si="5"/>
+        <f>(B53+C53)/2</f>
         <v>6.5</v>
       </c>
       <c r="E53" s="7">
-        <f t="shared" si="6"/>
+        <f>D53/(SUM($D$7:$D$184))</f>
         <v>5.8113544926240504E-3</v>
       </c>
       <c r="F53">
         <v>4</v>
       </c>
       <c r="G53" s="7">
-        <f t="shared" si="7"/>
+        <f>F53/(SUM($F$7:$F$184))</f>
         <v>4.2194092827004216E-3</v>
       </c>
       <c r="H53">
         <v>4</v>
       </c>
       <c r="I53" s="7">
-        <f t="shared" si="8"/>
+        <f>H53/(SUM($H$7:$H$184))</f>
         <v>5.1282051282051282E-3</v>
       </c>
       <c r="J53" s="5">
-        <f t="shared" si="9"/>
+        <f>E53/(G53+I53)</f>
         <v>0.62169386082551037</v>
       </c>
     </row>
@@ -3084,29 +3084,29 @@
         <v>8</v>
       </c>
       <c r="D54" s="6">
-        <f t="shared" si="5"/>
+        <f>(B54+C54)/2</f>
         <v>6.5</v>
       </c>
       <c r="E54" s="7">
-        <f t="shared" si="6"/>
+        <f>D54/(SUM($D$7:$D$184))</f>
         <v>5.8113544926240504E-3</v>
       </c>
       <c r="F54">
         <v>4</v>
       </c>
       <c r="G54" s="7">
-        <f t="shared" si="7"/>
+        <f>F54/(SUM($F$7:$F$184))</f>
         <v>4.2194092827004216E-3</v>
       </c>
       <c r="H54">
         <v>4</v>
       </c>
       <c r="I54" s="7">
-        <f t="shared" si="8"/>
+        <f>H54/(SUM($H$7:$H$184))</f>
         <v>5.1282051282051282E-3</v>
       </c>
       <c r="J54" s="5">
-        <f t="shared" si="9"/>
+        <f>E54/(G54+I54)</f>
         <v>0.62169386082551037</v>
       </c>
     </row>
@@ -3121,29 +3121,29 @@
         <v>7</v>
       </c>
       <c r="D55" s="6">
-        <f t="shared" si="5"/>
+        <f>(B55+C55)/2</f>
         <v>7</v>
       </c>
       <c r="E55" s="7">
-        <f t="shared" si="6"/>
+        <f>D55/(SUM($D$7:$D$184))</f>
         <v>6.2583817612874388E-3</v>
       </c>
       <c r="F55">
         <v>6</v>
       </c>
       <c r="G55" s="7">
-        <f t="shared" si="7"/>
+        <f>F55/(SUM($F$7:$F$184))</f>
         <v>6.3291139240506328E-3</v>
       </c>
       <c r="H55">
         <v>3</v>
       </c>
       <c r="I55" s="7">
-        <f t="shared" si="8"/>
+        <f>H55/(SUM($H$7:$H$184))</f>
         <v>3.8461538461538464E-3</v>
       </c>
       <c r="J55" s="5">
-        <f t="shared" si="9"/>
+        <f>E55/(G55+I55)</f>
         <v>0.61505818840595217</v>
       </c>
     </row>
@@ -3158,29 +3158,29 @@
         <v>8</v>
       </c>
       <c r="D56" s="6">
-        <f t="shared" si="5"/>
+        <f>(B56+C56)/2</f>
         <v>7</v>
       </c>
       <c r="E56" s="7">
-        <f t="shared" si="6"/>
+        <f>D56/(SUM($D$7:$D$184))</f>
         <v>6.2583817612874388E-3</v>
       </c>
       <c r="F56">
         <v>6</v>
       </c>
       <c r="G56" s="7">
-        <f t="shared" si="7"/>
+        <f>F56/(SUM($F$7:$F$184))</f>
         <v>6.3291139240506328E-3</v>
       </c>
       <c r="H56">
         <v>3</v>
       </c>
       <c r="I56" s="7">
-        <f t="shared" si="8"/>
+        <f>H56/(SUM($H$7:$H$184))</f>
         <v>3.8461538461538464E-3</v>
       </c>
       <c r="J56" s="5">
-        <f t="shared" si="9"/>
+        <f>E56/(G56+I56)</f>
         <v>0.61505818840595217</v>
       </c>
     </row>
@@ -3195,29 +3195,29 @@
         <v>8</v>
       </c>
       <c r="D57" s="6">
-        <f t="shared" si="5"/>
+        <f>(B57+C57)/2</f>
         <v>8</v>
       </c>
       <c r="E57" s="7">
-        <f t="shared" si="6"/>
+        <f>D57/(SUM($D$7:$D$184))</f>
         <v>7.1524362986142157E-3</v>
       </c>
       <c r="F57">
         <v>5</v>
       </c>
       <c r="G57" s="7">
-        <f t="shared" si="7"/>
+        <f>F57/(SUM($F$7:$F$184))</f>
         <v>5.2742616033755272E-3</v>
       </c>
       <c r="H57">
         <v>5</v>
       </c>
       <c r="I57" s="7">
-        <f t="shared" si="8"/>
+        <f>H57/(SUM($H$7:$H$184))</f>
         <v>6.41025641025641E-3</v>
       </c>
       <c r="J57" s="5">
-        <f t="shared" si="9"/>
+        <f>E57/(G57+I57)</f>
         <v>0.61212933988973328</v>
       </c>
     </row>
@@ -3232,29 +3232,29 @@
         <v>9</v>
       </c>
       <c r="D58" s="6">
-        <f t="shared" si="5"/>
+        <f>(B58+C58)/2</f>
         <v>8</v>
       </c>
       <c r="E58" s="7">
-        <f t="shared" si="6"/>
+        <f>D58/(SUM($D$7:$D$184))</f>
         <v>7.1524362986142157E-3</v>
       </c>
       <c r="F58">
         <v>5</v>
       </c>
       <c r="G58" s="7">
-        <f t="shared" si="7"/>
+        <f>F58/(SUM($F$7:$F$184))</f>
         <v>5.2742616033755272E-3</v>
       </c>
       <c r="H58">
         <v>5</v>
       </c>
       <c r="I58" s="7">
-        <f t="shared" si="8"/>
+        <f>H58/(SUM($H$7:$H$184))</f>
         <v>6.41025641025641E-3</v>
       </c>
       <c r="J58" s="5">
-        <f t="shared" si="9"/>
+        <f>E58/(G58+I58)</f>
         <v>0.61212933988973328</v>
       </c>
     </row>
@@ -3269,29 +3269,29 @@
         <v>6</v>
       </c>
       <c r="D59" s="6">
-        <f t="shared" si="5"/>
+        <f>(B59+C59)/2</f>
         <v>5.5</v>
       </c>
       <c r="E59" s="7">
-        <f t="shared" si="6"/>
+        <f>D59/(SUM($D$7:$D$184))</f>
         <v>4.9172999552972736E-3</v>
       </c>
       <c r="F59">
         <v>4</v>
       </c>
       <c r="G59" s="7">
-        <f t="shared" si="7"/>
+        <f>F59/(SUM($F$7:$F$184))</f>
         <v>4.2194092827004216E-3</v>
       </c>
       <c r="H59">
         <v>3</v>
       </c>
       <c r="I59" s="7">
-        <f t="shared" si="8"/>
+        <f>H59/(SUM($H$7:$H$184))</f>
         <v>3.8461538461538464E-3</v>
       </c>
       <c r="J59" s="5">
-        <f t="shared" si="9"/>
+        <f>E59/(G59+I59)</f>
         <v>0.60966604274731984</v>
       </c>
     </row>
@@ -3306,29 +3306,29 @@
         <v>7</v>
       </c>
       <c r="D60" s="6">
-        <f t="shared" si="5"/>
+        <f>(B60+C60)/2</f>
         <v>6.5</v>
       </c>
       <c r="E60" s="7">
-        <f t="shared" si="6"/>
+        <f>D60/(SUM($D$7:$D$184))</f>
         <v>5.8113544926240504E-3</v>
       </c>
       <c r="F60">
         <v>3</v>
       </c>
       <c r="G60" s="7">
-        <f t="shared" si="7"/>
+        <f>F60/(SUM($F$7:$F$184))</f>
         <v>3.1645569620253164E-3</v>
       </c>
       <c r="H60">
         <v>5</v>
       </c>
       <c r="I60" s="7">
-        <f t="shared" si="8"/>
+        <f>H60/(SUM($H$7:$H$184))</f>
         <v>6.41025641025641E-3</v>
       </c>
       <c r="J60" s="5">
-        <f t="shared" si="9"/>
+        <f>E60/(G60+I60)</f>
         <v>0.60694180311100676</v>
       </c>
     </row>
@@ -3343,29 +3343,29 @@
         <v>6</v>
       </c>
       <c r="D61" s="6">
-        <f t="shared" si="5"/>
+        <f>(B61+C61)/2</f>
         <v>6</v>
       </c>
       <c r="E61" s="7">
-        <f t="shared" si="6"/>
+        <f>D61/(SUM($D$7:$D$184))</f>
         <v>5.364327223960662E-3</v>
       </c>
       <c r="F61">
         <v>6</v>
       </c>
       <c r="G61" s="7">
-        <f t="shared" si="7"/>
+        <f>F61/(SUM($F$7:$F$184))</f>
         <v>6.3291139240506328E-3</v>
       </c>
       <c r="H61">
         <v>2</v>
       </c>
       <c r="I61" s="7">
-        <f t="shared" si="8"/>
+        <f>H61/(SUM($H$7:$H$184))</f>
         <v>2.5641025641025641E-3</v>
       </c>
       <c r="J61" s="5">
-        <f t="shared" si="9"/>
+        <f>E61/(G61+I61)</f>
         <v>0.60319314514681743</v>
       </c>
     </row>
@@ -3380,29 +3380,29 @@
         <v>7</v>
       </c>
       <c r="D62" s="6">
-        <f t="shared" si="5"/>
+        <f>(B62+C62)/2</f>
         <v>7</v>
       </c>
       <c r="E62" s="7">
-        <f t="shared" si="6"/>
+        <f>D62/(SUM($D$7:$D$184))</f>
         <v>6.2583817612874388E-3</v>
       </c>
       <c r="F62">
         <v>5</v>
       </c>
       <c r="G62" s="7">
-        <f t="shared" si="7"/>
+        <f>F62/(SUM($F$7:$F$184))</f>
         <v>5.2742616033755272E-3</v>
       </c>
       <c r="H62">
         <v>4</v>
       </c>
       <c r="I62" s="7">
-        <f t="shared" si="8"/>
+        <f>H62/(SUM($H$7:$H$184))</f>
         <v>5.1282051282051282E-3</v>
       </c>
       <c r="J62" s="5">
-        <f t="shared" si="9"/>
+        <f>E62/(G62+I62)</f>
         <v>0.60162478023483923</v>
       </c>
     </row>
@@ -3417,29 +3417,29 @@
         <v>6</v>
       </c>
       <c r="D63" s="6">
-        <f t="shared" si="5"/>
+        <f>(B63+C63)/2</f>
         <v>6</v>
       </c>
       <c r="E63" s="7">
-        <f t="shared" si="6"/>
+        <f>D63/(SUM($D$7:$D$184))</f>
         <v>5.364327223960662E-3</v>
       </c>
       <c r="F63">
         <v>5</v>
       </c>
       <c r="G63" s="7">
-        <f t="shared" si="7"/>
+        <f>F63/(SUM($F$7:$F$184))</f>
         <v>5.2742616033755272E-3</v>
       </c>
       <c r="H63">
         <v>3</v>
       </c>
       <c r="I63" s="7">
-        <f t="shared" si="8"/>
+        <f>H63/(SUM($H$7:$H$184))</f>
         <v>3.8461538461538464E-3</v>
       </c>
       <c r="J63" s="5">
-        <f t="shared" si="9"/>
+        <f>E63/(G63+I63)</f>
         <v>0.58816698138871171</v>
       </c>
     </row>
@@ -3454,29 +3454,29 @@
         <v>8</v>
       </c>
       <c r="D64" s="6">
-        <f t="shared" si="5"/>
+        <f>(B64+C64)/2</f>
         <v>7.5</v>
       </c>
       <c r="E64" s="7">
-        <f t="shared" si="6"/>
+        <f>D64/(SUM($D$7:$D$184))</f>
         <v>6.7054090299508273E-3</v>
       </c>
       <c r="F64">
         <v>6</v>
       </c>
       <c r="G64" s="7">
-        <f t="shared" si="7"/>
+        <f>F64/(SUM($F$7:$F$184))</f>
         <v>6.3291139240506328E-3</v>
       </c>
       <c r="H64">
         <v>4</v>
       </c>
       <c r="I64" s="7">
-        <f t="shared" si="8"/>
+        <f>H64/(SUM($H$7:$H$184))</f>
         <v>5.1282051282051282E-3</v>
       </c>
       <c r="J64" s="5">
-        <f t="shared" si="9"/>
+        <f>E64/(G64+I64)</f>
         <v>0.58525113941298867</v>
       </c>
     </row>
@@ -3491,29 +3491,29 @@
         <v>8</v>
       </c>
       <c r="D65" s="6">
-        <f t="shared" si="5"/>
+        <f>(B65+C65)/2</f>
         <v>7.5</v>
       </c>
       <c r="E65" s="7">
-        <f t="shared" si="6"/>
+        <f>D65/(SUM($D$7:$D$184))</f>
         <v>6.7054090299508273E-3</v>
       </c>
       <c r="F65">
         <v>6</v>
       </c>
       <c r="G65" s="7">
-        <f t="shared" si="7"/>
+        <f>F65/(SUM($F$7:$F$184))</f>
         <v>6.3291139240506328E-3</v>
       </c>
       <c r="H65">
         <v>4</v>
       </c>
       <c r="I65" s="7">
-        <f t="shared" si="8"/>
+        <f>H65/(SUM($H$7:$H$184))</f>
         <v>5.1282051282051282E-3</v>
       </c>
       <c r="J65" s="5">
-        <f t="shared" si="9"/>
+        <f>E65/(G65+I65)</f>
         <v>0.58525113941298867</v>
       </c>
     </row>
@@ -3528,29 +3528,29 @@
         <v>6</v>
       </c>
       <c r="D66" s="6">
-        <f t="shared" si="5"/>
+        <f>(B66+C66)/2</f>
         <v>6</v>
       </c>
       <c r="E66" s="7">
-        <f t="shared" si="6"/>
+        <f>D66/(SUM($D$7:$D$184))</f>
         <v>5.364327223960662E-3</v>
       </c>
       <c r="F66">
         <v>4</v>
       </c>
       <c r="G66" s="7">
-        <f t="shared" si="7"/>
+        <f>F66/(SUM($F$7:$F$184))</f>
         <v>4.2194092827004216E-3</v>
       </c>
       <c r="H66">
         <v>4</v>
       </c>
       <c r="I66" s="7">
-        <f t="shared" si="8"/>
+        <f>H66/(SUM($H$7:$H$184))</f>
         <v>5.1282051282051282E-3</v>
       </c>
       <c r="J66" s="5">
-        <f t="shared" si="9"/>
+        <f>E66/(G66+I66)</f>
         <v>0.57387125614662504</v>
       </c>
     </row>
@@ -3565,29 +3565,29 @@
         <v>7</v>
       </c>
       <c r="D67" s="6">
-        <f t="shared" si="5"/>
+        <f>(B67+C67)/2</f>
         <v>6</v>
       </c>
       <c r="E67" s="7">
-        <f t="shared" si="6"/>
+        <f>D67/(SUM($D$7:$D$184))</f>
         <v>5.364327223960662E-3</v>
       </c>
       <c r="F67">
         <v>4</v>
       </c>
       <c r="G67" s="7">
-        <f t="shared" si="7"/>
+        <f>F67/(SUM($F$7:$F$184))</f>
         <v>4.2194092827004216E-3</v>
       </c>
       <c r="H67">
         <v>4</v>
       </c>
       <c r="I67" s="7">
-        <f t="shared" si="8"/>
+        <f>H67/(SUM($H$7:$H$184))</f>
         <v>5.1282051282051282E-3</v>
       </c>
       <c r="J67" s="5">
-        <f t="shared" si="9"/>
+        <f>E67/(G67+I67)</f>
         <v>0.57387125614662504</v>
       </c>
     </row>
@@ -3602,29 +3602,29 @@
         <v>8</v>
       </c>
       <c r="D68" s="6">
-        <f t="shared" si="5"/>
+        <f>(B68+C68)/2</f>
         <v>6.5</v>
       </c>
       <c r="E68" s="7">
-        <f t="shared" si="6"/>
+        <f>D68/(SUM($D$7:$D$184))</f>
         <v>5.8113544926240504E-3</v>
       </c>
       <c r="F68">
         <v>6</v>
       </c>
       <c r="G68" s="7">
-        <f t="shared" si="7"/>
+        <f>F68/(SUM($F$7:$F$184))</f>
         <v>6.3291139240506328E-3</v>
       </c>
       <c r="H68">
         <v>3</v>
       </c>
       <c r="I68" s="7">
-        <f t="shared" si="8"/>
+        <f>H68/(SUM($H$7:$H$184))</f>
         <v>3.8461538461538464E-3</v>
       </c>
       <c r="J68" s="5">
-        <f t="shared" si="9"/>
+        <f>E68/(G68+I68)</f>
         <v>0.57112546066266989</v>
       </c>
     </row>
@@ -3639,29 +3639,29 @@
         <v>8</v>
       </c>
       <c r="D69" s="6">
-        <f t="shared" si="5"/>
+        <f>(B69+C69)/2</f>
         <v>6.5</v>
       </c>
       <c r="E69" s="7">
-        <f t="shared" si="6"/>
+        <f>D69/(SUM($D$7:$D$184))</f>
         <v>5.8113544926240504E-3</v>
       </c>
       <c r="F69">
         <v>6</v>
       </c>
       <c r="G69" s="7">
-        <f t="shared" si="7"/>
+        <f>F69/(SUM($F$7:$F$184))</f>
         <v>6.3291139240506328E-3</v>
       </c>
       <c r="H69">
         <v>3</v>
       </c>
       <c r="I69" s="7">
-        <f t="shared" si="8"/>
+        <f>H69/(SUM($H$7:$H$184))</f>
         <v>3.8461538461538464E-3</v>
       </c>
       <c r="J69" s="5">
-        <f t="shared" si="9"/>
+        <f>E69/(G69+I69)</f>
         <v>0.57112546066266989</v>
       </c>
     </row>
@@ -3676,29 +3676,29 @@
         <v>8</v>
       </c>
       <c r="D70" s="6">
-        <f t="shared" si="5"/>
+        <f>(B70+C70)/2</f>
         <v>8</v>
       </c>
       <c r="E70" s="7">
-        <f t="shared" si="6"/>
+        <f>D70/(SUM($D$7:$D$184))</f>
         <v>7.1524362986142157E-3</v>
       </c>
       <c r="F70">
         <v>6</v>
       </c>
       <c r="G70" s="7">
-        <f t="shared" si="7"/>
+        <f>F70/(SUM($F$7:$F$184))</f>
         <v>6.3291139240506328E-3</v>
       </c>
       <c r="H70">
         <v>5</v>
       </c>
       <c r="I70" s="7">
-        <f t="shared" si="8"/>
+        <f>H70/(SUM($H$7:$H$184))</f>
         <v>6.41025641025641E-3</v>
       </c>
       <c r="J70" s="5">
-        <f t="shared" si="9"/>
+        <f>E70/(G70+I70)</f>
         <v>0.56144347098166614</v>
       </c>
     </row>
@@ -3713,29 +3713,29 @@
         <v>7</v>
       </c>
       <c r="D71" s="6">
-        <f t="shared" ref="D71:D102" si="10">(B71+C71)/2</f>
+        <f>(B71+C71)/2</f>
         <v>6.5</v>
       </c>
       <c r="E71" s="7">
-        <f t="shared" ref="E71:E102" si="11">D71/(SUM($D$7:$D$184))</f>
+        <f>D71/(SUM($D$7:$D$184))</f>
         <v>5.8113544926240504E-3</v>
       </c>
       <c r="F71">
         <v>5</v>
       </c>
       <c r="G71" s="7">
-        <f t="shared" ref="G71:G102" si="12">F71/(SUM($F$7:$F$184))</f>
+        <f>F71/(SUM($F$7:$F$184))</f>
         <v>5.2742616033755272E-3</v>
       </c>
       <c r="H71">
         <v>4</v>
       </c>
       <c r="I71" s="7">
-        <f t="shared" ref="I71:I102" si="13">H71/(SUM($H$7:$H$184))</f>
+        <f>H71/(SUM($H$7:$H$184))</f>
         <v>5.1282051282051282E-3</v>
       </c>
       <c r="J71" s="5">
-        <f t="shared" ref="J71:J102" si="14">E71/(G71+I71)</f>
+        <f>E71/(G71+I71)</f>
         <v>0.55865158164663642</v>
       </c>
     </row>
@@ -3750,29 +3750,29 @@
         <v>8</v>
       </c>
       <c r="D72" s="6">
-        <f t="shared" si="10"/>
+        <f>(B72+C72)/2</f>
         <v>6.5</v>
       </c>
       <c r="E72" s="7">
-        <f t="shared" si="11"/>
+        <f>D72/(SUM($D$7:$D$184))</f>
         <v>5.8113544926240504E-3</v>
       </c>
       <c r="F72">
         <v>5</v>
       </c>
       <c r="G72" s="7">
-        <f t="shared" si="12"/>
+        <f>F72/(SUM($F$7:$F$184))</f>
         <v>5.2742616033755272E-3</v>
       </c>
       <c r="H72">
         <v>4</v>
       </c>
       <c r="I72" s="7">
-        <f t="shared" si="13"/>
+        <f>H72/(SUM($H$7:$H$184))</f>
         <v>5.1282051282051282E-3</v>
       </c>
       <c r="J72" s="5">
-        <f t="shared" si="14"/>
+        <f>E72/(G72+I72)</f>
         <v>0.55865158164663642</v>
       </c>
     </row>
@@ -3787,29 +3787,29 @@
         <v>6</v>
       </c>
       <c r="D73" s="6">
-        <f t="shared" si="10"/>
+        <f>(B73+C73)/2</f>
         <v>6.5</v>
       </c>
       <c r="E73" s="7">
-        <f t="shared" si="11"/>
+        <f>D73/(SUM($D$7:$D$184))</f>
         <v>5.8113544926240504E-3</v>
       </c>
       <c r="F73">
         <v>5</v>
       </c>
       <c r="G73" s="7">
-        <f t="shared" si="12"/>
+        <f>F73/(SUM($F$7:$F$184))</f>
         <v>5.2742616033755272E-3</v>
       </c>
       <c r="H73">
         <v>4</v>
       </c>
       <c r="I73" s="7">
-        <f t="shared" si="13"/>
+        <f>H73/(SUM($H$7:$H$184))</f>
         <v>5.1282051282051282E-3</v>
       </c>
       <c r="J73" s="5">
-        <f t="shared" si="14"/>
+        <f>E73/(G73+I73)</f>
         <v>0.55865158164663642</v>
       </c>
     </row>
@@ -3824,29 +3824,29 @@
         <v>7</v>
       </c>
       <c r="D74" s="6">
-        <f t="shared" si="10"/>
+        <f>(B74+C74)/2</f>
         <v>6.5</v>
       </c>
       <c r="E74" s="7">
-        <f t="shared" si="11"/>
+        <f>D74/(SUM($D$7:$D$184))</f>
         <v>5.8113544926240504E-3</v>
       </c>
       <c r="F74">
         <v>5</v>
       </c>
       <c r="G74" s="7">
-        <f t="shared" si="12"/>
+        <f>F74/(SUM($F$7:$F$184))</f>
         <v>5.2742616033755272E-3</v>
       </c>
       <c r="H74">
         <v>4</v>
       </c>
       <c r="I74" s="7">
-        <f t="shared" si="13"/>
+        <f>H74/(SUM($H$7:$H$184))</f>
         <v>5.1282051282051282E-3</v>
       </c>
       <c r="J74" s="5">
-        <f t="shared" si="14"/>
+        <f>E74/(G74+I74)</f>
         <v>0.55865158164663642</v>
       </c>
     </row>
@@ -3861,29 +3861,29 @@
         <v>7</v>
       </c>
       <c r="D75" s="6">
-        <f t="shared" si="10"/>
+        <f>(B75+C75)/2</f>
         <v>6.5</v>
       </c>
       <c r="E75" s="7">
-        <f t="shared" si="11"/>
+        <f>D75/(SUM($D$7:$D$184))</f>
         <v>5.8113544926240504E-3</v>
       </c>
       <c r="F75">
         <v>5</v>
       </c>
       <c r="G75" s="7">
-        <f t="shared" si="12"/>
+        <f>F75/(SUM($F$7:$F$184))</f>
         <v>5.2742616033755272E-3</v>
       </c>
       <c r="H75">
         <v>4</v>
       </c>
       <c r="I75" s="7">
-        <f t="shared" si="13"/>
+        <f>H75/(SUM($H$7:$H$184))</f>
         <v>5.1282051282051282E-3</v>
       </c>
       <c r="J75" s="5">
-        <f t="shared" si="14"/>
+        <f>E75/(G75+I75)</f>
         <v>0.55865158164663642</v>
       </c>
     </row>
@@ -3898,29 +3898,29 @@
         <v>7</v>
       </c>
       <c r="D76" s="6">
-        <f t="shared" si="10"/>
+        <f>(B76+C76)/2</f>
         <v>6.5</v>
       </c>
       <c r="E76" s="7">
-        <f t="shared" si="11"/>
+        <f>D76/(SUM($D$7:$D$184))</f>
         <v>5.8113544926240504E-3</v>
       </c>
       <c r="F76">
         <v>5</v>
       </c>
       <c r="G76" s="7">
-        <f t="shared" si="12"/>
+        <f>F76/(SUM($F$7:$F$184))</f>
         <v>5.2742616033755272E-3</v>
       </c>
       <c r="H76">
         <v>4</v>
       </c>
       <c r="I76" s="7">
-        <f t="shared" si="13"/>
+        <f>H76/(SUM($H$7:$H$184))</f>
         <v>5.1282051282051282E-3</v>
       </c>
       <c r="J76" s="5">
-        <f t="shared" si="14"/>
+        <f>E76/(G76+I76)</f>
         <v>0.55865158164663642</v>
       </c>
     </row>
@@ -3935,29 +3935,29 @@
         <v>7</v>
       </c>
       <c r="D77" s="6">
-        <f t="shared" si="10"/>
+        <f>(B77+C77)/2</f>
         <v>6.5</v>
       </c>
       <c r="E77" s="7">
-        <f t="shared" si="11"/>
+        <f>D77/(SUM($D$7:$D$184))</f>
         <v>5.8113544926240504E-3</v>
       </c>
       <c r="F77">
         <v>5</v>
       </c>
       <c r="G77" s="7">
-        <f t="shared" si="12"/>
+        <f>F77/(SUM($F$7:$F$184))</f>
         <v>5.2742616033755272E-3</v>
       </c>
       <c r="H77">
         <v>4</v>
       </c>
       <c r="I77" s="7">
-        <f t="shared" si="13"/>
+        <f>H77/(SUM($H$7:$H$184))</f>
         <v>5.1282051282051282E-3</v>
       </c>
       <c r="J77" s="5">
-        <f t="shared" si="14"/>
+        <f>E77/(G77+I77)</f>
         <v>0.55865158164663642</v>
       </c>
     </row>
@@ -3972,29 +3972,29 @@
         <v>5</v>
       </c>
       <c r="D78" s="6">
-        <f t="shared" si="10"/>
+        <f>(B78+C78)/2</f>
         <v>5</v>
       </c>
       <c r="E78" s="7">
-        <f t="shared" si="11"/>
+        <f>D78/(SUM($D$7:$D$184))</f>
         <v>4.4702726866338843E-3</v>
       </c>
       <c r="F78">
         <v>4</v>
       </c>
       <c r="G78" s="7">
-        <f t="shared" si="12"/>
+        <f>F78/(SUM($F$7:$F$184))</f>
         <v>4.2194092827004216E-3</v>
       </c>
       <c r="H78">
         <v>3</v>
       </c>
       <c r="I78" s="7">
-        <f t="shared" si="13"/>
+        <f>H78/(SUM($H$7:$H$184))</f>
         <v>3.8461538461538464E-3</v>
       </c>
       <c r="J78" s="5">
-        <f t="shared" si="14"/>
+        <f>E78/(G78+I78)</f>
         <v>0.55424185704301798</v>
       </c>
     </row>
@@ -4009,29 +4009,29 @@
         <v>7</v>
       </c>
       <c r="D79" s="6">
-        <f t="shared" si="10"/>
+        <f>(B79+C79)/2</f>
         <v>7</v>
       </c>
       <c r="E79" s="7">
-        <f t="shared" si="11"/>
+        <f>D79/(SUM($D$7:$D$184))</f>
         <v>6.2583817612874388E-3</v>
       </c>
       <c r="F79">
         <v>6</v>
       </c>
       <c r="G79" s="7">
-        <f t="shared" si="12"/>
+        <f>F79/(SUM($F$7:$F$184))</f>
         <v>6.3291139240506328E-3</v>
       </c>
       <c r="H79">
         <v>4</v>
       </c>
       <c r="I79" s="7">
-        <f t="shared" si="13"/>
+        <f>H79/(SUM($H$7:$H$184))</f>
         <v>5.1282051282051282E-3</v>
       </c>
       <c r="J79" s="5">
-        <f t="shared" si="14"/>
+        <f>E79/(G79+I79)</f>
         <v>0.54623439678545604</v>
       </c>
     </row>
@@ -4046,29 +4046,29 @@
         <v>7</v>
       </c>
       <c r="D80" s="6">
-        <f t="shared" si="10"/>
+        <f>(B80+C80)/2</f>
         <v>7</v>
       </c>
       <c r="E80" s="7">
-        <f t="shared" si="11"/>
+        <f>D80/(SUM($D$7:$D$184))</f>
         <v>6.2583817612874388E-3</v>
       </c>
       <c r="F80">
         <v>6</v>
       </c>
       <c r="G80" s="7">
-        <f t="shared" si="12"/>
+        <f>F80/(SUM($F$7:$F$184))</f>
         <v>6.3291139240506328E-3</v>
       </c>
       <c r="H80">
         <v>4</v>
       </c>
       <c r="I80" s="7">
-        <f t="shared" si="13"/>
+        <f>H80/(SUM($H$7:$H$184))</f>
         <v>5.1282051282051282E-3</v>
       </c>
       <c r="J80" s="5">
-        <f t="shared" si="14"/>
+        <f>E80/(G80+I80)</f>
         <v>0.54623439678545604</v>
       </c>
     </row>
@@ -4083,29 +4083,29 @@
         <v>8</v>
       </c>
       <c r="D81" s="6">
-        <f t="shared" si="10"/>
+        <f>(B81+C81)/2</f>
         <v>7</v>
       </c>
       <c r="E81" s="7">
-        <f t="shared" si="11"/>
+        <f>D81/(SUM($D$7:$D$184))</f>
         <v>6.2583817612874388E-3</v>
       </c>
       <c r="F81">
         <v>6</v>
       </c>
       <c r="G81" s="7">
-        <f t="shared" si="12"/>
+        <f>F81/(SUM($F$7:$F$184))</f>
         <v>6.3291139240506328E-3</v>
       </c>
       <c r="H81">
         <v>4</v>
       </c>
       <c r="I81" s="7">
-        <f t="shared" si="13"/>
+        <f>H81/(SUM($H$7:$H$184))</f>
         <v>5.1282051282051282E-3</v>
       </c>
       <c r="J81" s="5">
-        <f t="shared" si="14"/>
+        <f>E81/(G81+I81)</f>
         <v>0.54623439678545604</v>
       </c>
     </row>
@@ -4120,29 +4120,29 @@
         <v>8</v>
       </c>
       <c r="D82" s="6">
-        <f t="shared" si="10"/>
+        <f>(B82+C82)/2</f>
         <v>7</v>
       </c>
       <c r="E82" s="7">
-        <f t="shared" si="11"/>
+        <f>D82/(SUM($D$7:$D$184))</f>
         <v>6.2583817612874388E-3</v>
       </c>
       <c r="F82">
         <v>6</v>
       </c>
       <c r="G82" s="7">
-        <f t="shared" si="12"/>
+        <f>F82/(SUM($F$7:$F$184))</f>
         <v>6.3291139240506328E-3</v>
       </c>
       <c r="H82">
         <v>4</v>
       </c>
       <c r="I82" s="7">
-        <f t="shared" si="13"/>
+        <f>H82/(SUM($H$7:$H$184))</f>
         <v>5.1282051282051282E-3</v>
       </c>
       <c r="J82" s="5">
-        <f t="shared" si="14"/>
+        <f>E82/(G82+I82)</f>
         <v>0.54623439678545604</v>
       </c>
     </row>
@@ -4157,29 +4157,29 @@
         <v>7</v>
       </c>
       <c r="D83" s="6">
-        <f t="shared" si="10"/>
+        <f>(B83+C83)/2</f>
         <v>7</v>
       </c>
       <c r="E83" s="7">
-        <f t="shared" si="11"/>
+        <f>D83/(SUM($D$7:$D$184))</f>
         <v>6.2583817612874388E-3</v>
       </c>
       <c r="F83">
         <v>6</v>
       </c>
       <c r="G83" s="7">
-        <f t="shared" si="12"/>
+        <f>F83/(SUM($F$7:$F$184))</f>
         <v>6.3291139240506328E-3</v>
       </c>
       <c r="H83">
         <v>4</v>
       </c>
       <c r="I83" s="7">
-        <f t="shared" si="13"/>
+        <f>H83/(SUM($H$7:$H$184))</f>
         <v>5.1282051282051282E-3</v>
       </c>
       <c r="J83" s="5">
-        <f t="shared" si="14"/>
+        <f>E83/(G83+I83)</f>
         <v>0.54623439678545604</v>
       </c>
     </row>
@@ -4194,29 +4194,29 @@
         <v>5</v>
       </c>
       <c r="D84" s="6">
-        <f t="shared" si="10"/>
+        <f>(B84+C84)/2</f>
         <v>5</v>
       </c>
       <c r="E84" s="7">
-        <f t="shared" si="11"/>
+        <f>D84/(SUM($D$7:$D$184))</f>
         <v>4.4702726866338843E-3</v>
       </c>
       <c r="F84">
         <v>3</v>
       </c>
       <c r="G84" s="7">
-        <f t="shared" si="12"/>
+        <f>F84/(SUM($F$7:$F$184))</f>
         <v>3.1645569620253164E-3</v>
       </c>
       <c r="H84">
         <v>4</v>
       </c>
       <c r="I84" s="7">
-        <f t="shared" si="13"/>
+        <f>H84/(SUM($H$7:$H$184))</f>
         <v>5.1282051282051282E-3</v>
       </c>
       <c r="J84" s="5">
-        <f t="shared" si="14"/>
+        <f>E84/(G84+I84)</f>
         <v>0.5390571486308805</v>
       </c>
     </row>
@@ -4231,29 +4231,29 @@
         <v>7</v>
       </c>
       <c r="D85" s="6">
-        <f t="shared" si="10"/>
+        <f>(B85+C85)/2</f>
         <v>7</v>
       </c>
       <c r="E85" s="7">
-        <f t="shared" si="11"/>
+        <f>D85/(SUM($D$7:$D$184))</f>
         <v>6.2583817612874388E-3</v>
       </c>
       <c r="F85">
         <v>5</v>
       </c>
       <c r="G85" s="7">
-        <f t="shared" si="12"/>
+        <f>F85/(SUM($F$7:$F$184))</f>
         <v>5.2742616033755272E-3</v>
       </c>
       <c r="H85">
         <v>5</v>
       </c>
       <c r="I85" s="7">
-        <f t="shared" si="13"/>
+        <f>H85/(SUM($H$7:$H$184))</f>
         <v>6.41025641025641E-3</v>
       </c>
       <c r="J85" s="5">
-        <f t="shared" si="14"/>
+        <f>E85/(G85+I85)</f>
         <v>0.53561317240351669</v>
       </c>
     </row>
@@ -4268,29 +4268,29 @@
         <v>4</v>
       </c>
       <c r="D86" s="6">
-        <f t="shared" si="10"/>
+        <f>(B86+C86)/2</f>
         <v>4</v>
       </c>
       <c r="E86" s="7">
-        <f t="shared" si="11"/>
+        <f>D86/(SUM($D$7:$D$184))</f>
         <v>3.5762181493071078E-3</v>
       </c>
       <c r="F86">
         <v>4</v>
       </c>
       <c r="G86" s="7">
-        <f t="shared" si="12"/>
+        <f>F86/(SUM($F$7:$F$184))</f>
         <v>4.2194092827004216E-3</v>
       </c>
       <c r="H86">
         <v>2</v>
       </c>
       <c r="I86" s="7">
-        <f t="shared" si="13"/>
+        <f>H86/(SUM($H$7:$H$184))</f>
         <v>2.5641025641025641E-3</v>
       </c>
       <c r="J86" s="5">
-        <f t="shared" si="14"/>
+        <f>E86/(G86+I86)</f>
         <v>0.52719273291938751</v>
       </c>
     </row>
@@ -4305,29 +4305,29 @@
         <v>8</v>
       </c>
       <c r="D87" s="6">
-        <f t="shared" si="10"/>
+        <f>(B87+C87)/2</f>
         <v>7.5</v>
       </c>
       <c r="E87" s="7">
-        <f t="shared" si="11"/>
+        <f>D87/(SUM($D$7:$D$184))</f>
         <v>6.7054090299508273E-3</v>
       </c>
       <c r="F87">
         <v>6</v>
       </c>
       <c r="G87" s="7">
-        <f t="shared" si="12"/>
+        <f>F87/(SUM($F$7:$F$184))</f>
         <v>6.3291139240506328E-3</v>
       </c>
       <c r="H87">
         <v>5</v>
       </c>
       <c r="I87" s="7">
-        <f t="shared" si="13"/>
+        <f>H87/(SUM($H$7:$H$184))</f>
         <v>6.41025641025641E-3</v>
       </c>
       <c r="J87" s="5">
-        <f t="shared" si="14"/>
+        <f>E87/(G87+I87)</f>
         <v>0.52635325404531208</v>
       </c>
     </row>
@@ -4342,29 +4342,29 @@
         <v>8</v>
       </c>
       <c r="D88" s="6">
-        <f t="shared" si="10"/>
+        <f>(B88+C88)/2</f>
         <v>7.5</v>
       </c>
       <c r="E88" s="7">
-        <f t="shared" si="11"/>
+        <f>D88/(SUM($D$7:$D$184))</f>
         <v>6.7054090299508273E-3</v>
       </c>
       <c r="F88">
         <v>6</v>
       </c>
       <c r="G88" s="7">
-        <f t="shared" si="12"/>
+        <f>F88/(SUM($F$7:$F$184))</f>
         <v>6.3291139240506328E-3</v>
       </c>
       <c r="H88">
         <v>5</v>
       </c>
       <c r="I88" s="7">
-        <f t="shared" si="13"/>
+        <f>H88/(SUM($H$7:$H$184))</f>
         <v>6.41025641025641E-3</v>
       </c>
       <c r="J88" s="5">
-        <f t="shared" si="14"/>
+        <f>E88/(G88+I88)</f>
         <v>0.52635325404531208</v>
       </c>
     </row>
@@ -4379,29 +4379,29 @@
         <v>8</v>
       </c>
       <c r="D89" s="6">
-        <f t="shared" si="10"/>
+        <f>(B89+C89)/2</f>
         <v>7.5</v>
       </c>
       <c r="E89" s="7">
-        <f t="shared" si="11"/>
+        <f>D89/(SUM($D$7:$D$184))</f>
         <v>6.7054090299508273E-3</v>
       </c>
       <c r="F89">
         <v>6</v>
       </c>
       <c r="G89" s="7">
-        <f t="shared" si="12"/>
+        <f>F89/(SUM($F$7:$F$184))</f>
         <v>6.3291139240506328E-3</v>
       </c>
       <c r="H89">
         <v>5</v>
       </c>
       <c r="I89" s="7">
-        <f t="shared" si="13"/>
+        <f>H89/(SUM($H$7:$H$184))</f>
         <v>6.41025641025641E-3</v>
       </c>
       <c r="J89" s="5">
-        <f t="shared" si="14"/>
+        <f>E89/(G89+I89)</f>
         <v>0.52635325404531208</v>
       </c>
     </row>
@@ -4416,29 +4416,29 @@
         <v>8</v>
       </c>
       <c r="D90" s="6">
-        <f t="shared" si="10"/>
+        <f>(B90+C90)/2</f>
         <v>8</v>
       </c>
       <c r="E90" s="7">
-        <f t="shared" si="11"/>
+        <f>D90/(SUM($D$7:$D$184))</f>
         <v>7.1524362986142157E-3</v>
       </c>
       <c r="F90">
         <v>7</v>
       </c>
       <c r="G90" s="7">
-        <f t="shared" si="12"/>
+        <f>F90/(SUM($F$7:$F$184))</f>
         <v>7.3839662447257384E-3</v>
       </c>
       <c r="H90">
         <v>5</v>
       </c>
       <c r="I90" s="7">
-        <f t="shared" si="13"/>
+        <f>H90/(SUM($H$7:$H$184))</f>
         <v>6.41025641025641E-3</v>
       </c>
       <c r="J90" s="5">
-        <f t="shared" si="14"/>
+        <f>E90/(G90+I90)</f>
         <v>0.51850955849483293</v>
       </c>
     </row>
@@ -4453,29 +4453,29 @@
         <v>8</v>
       </c>
       <c r="D91" s="6">
-        <f t="shared" si="10"/>
+        <f>(B91+C91)/2</f>
         <v>8</v>
       </c>
       <c r="E91" s="7">
-        <f t="shared" si="11"/>
+        <f>D91/(SUM($D$7:$D$184))</f>
         <v>7.1524362986142157E-3</v>
       </c>
       <c r="F91">
         <v>7</v>
       </c>
       <c r="G91" s="7">
-        <f t="shared" si="12"/>
+        <f>F91/(SUM($F$7:$F$184))</f>
         <v>7.3839662447257384E-3</v>
       </c>
       <c r="H91">
         <v>5</v>
       </c>
       <c r="I91" s="7">
-        <f t="shared" si="13"/>
+        <f>H91/(SUM($H$7:$H$184))</f>
         <v>6.41025641025641E-3</v>
       </c>
       <c r="J91" s="5">
-        <f t="shared" si="14"/>
+        <f>E91/(G91+I91)</f>
         <v>0.51850955849483293</v>
       </c>
     </row>
@@ -4490,29 +4490,29 @@
         <v>8</v>
       </c>
       <c r="D92" s="6">
-        <f t="shared" si="10"/>
+        <f>(B92+C92)/2</f>
         <v>7.5</v>
       </c>
       <c r="E92" s="7">
-        <f t="shared" si="11"/>
+        <f>D92/(SUM($D$7:$D$184))</f>
         <v>6.7054090299508273E-3</v>
       </c>
       <c r="F92">
         <v>5</v>
       </c>
       <c r="G92" s="7">
-        <f t="shared" si="12"/>
+        <f>F92/(SUM($F$7:$F$184))</f>
         <v>5.2742616033755272E-3</v>
       </c>
       <c r="H92">
         <v>6</v>
       </c>
       <c r="I92" s="7">
-        <f t="shared" si="13"/>
+        <f>H92/(SUM($H$7:$H$184))</f>
         <v>7.6923076923076927E-3</v>
       </c>
       <c r="J92" s="5">
-        <f t="shared" si="14"/>
+        <f>E92/(G92+I92)</f>
         <v>0.51713054371160194</v>
       </c>
     </row>
@@ -4527,29 +4527,29 @@
         <v>6</v>
       </c>
       <c r="D93" s="6">
-        <f t="shared" si="10"/>
+        <f>(B93+C93)/2</f>
         <v>6.5</v>
       </c>
       <c r="E93" s="7">
-        <f t="shared" si="11"/>
+        <f>D93/(SUM($D$7:$D$184))</f>
         <v>5.8113544926240504E-3</v>
       </c>
       <c r="F93">
         <v>6</v>
       </c>
       <c r="G93" s="7">
-        <f t="shared" si="12"/>
+        <f>F93/(SUM($F$7:$F$184))</f>
         <v>6.3291139240506328E-3</v>
       </c>
       <c r="H93">
         <v>4</v>
       </c>
       <c r="I93" s="7">
-        <f t="shared" si="13"/>
+        <f>H93/(SUM($H$7:$H$184))</f>
         <v>5.1282051282051282E-3</v>
       </c>
       <c r="J93" s="5">
-        <f t="shared" si="14"/>
+        <f>E93/(G93+I93)</f>
         <v>0.50721765415792353</v>
       </c>
     </row>
@@ -4564,29 +4564,29 @@
         <v>7</v>
       </c>
       <c r="D94" s="6">
-        <f t="shared" si="10"/>
+        <f>(B94+C94)/2</f>
         <v>6.5</v>
       </c>
       <c r="E94" s="7">
-        <f t="shared" si="11"/>
+        <f>D94/(SUM($D$7:$D$184))</f>
         <v>5.8113544926240504E-3</v>
       </c>
       <c r="F94">
         <v>6</v>
       </c>
       <c r="G94" s="7">
-        <f t="shared" si="12"/>
+        <f>F94/(SUM($F$7:$F$184))</f>
         <v>6.3291139240506328E-3</v>
       </c>
       <c r="H94">
         <v>4</v>
       </c>
       <c r="I94" s="7">
-        <f t="shared" si="13"/>
+        <f>H94/(SUM($H$7:$H$184))</f>
         <v>5.1282051282051282E-3</v>
       </c>
       <c r="J94" s="5">
-        <f t="shared" si="14"/>
+        <f>E94/(G94+I94)</f>
         <v>0.50721765415792353</v>
       </c>
     </row>
@@ -4601,29 +4601,29 @@
         <v>6</v>
       </c>
       <c r="D95" s="6">
-        <f t="shared" si="10"/>
+        <f>(B95+C95)/2</f>
         <v>6</v>
       </c>
       <c r="E95" s="7">
-        <f t="shared" si="11"/>
+        <f>D95/(SUM($D$7:$D$184))</f>
         <v>5.364327223960662E-3</v>
       </c>
       <c r="F95">
         <v>4</v>
       </c>
       <c r="G95" s="7">
-        <f t="shared" si="12"/>
+        <f>F95/(SUM($F$7:$F$184))</f>
         <v>4.2194092827004216E-3</v>
       </c>
       <c r="H95">
         <v>5</v>
       </c>
       <c r="I95" s="7">
-        <f t="shared" si="13"/>
+        <f>H95/(SUM($H$7:$H$184))</f>
         <v>6.41025641025641E-3</v>
       </c>
       <c r="J95" s="5">
-        <f t="shared" si="14"/>
+        <f>E95/(G95+I95)</f>
         <v>0.5046562496800856</v>
       </c>
     </row>
@@ -4638,29 +4638,29 @@
         <v>6</v>
       </c>
       <c r="D96" s="6">
-        <f t="shared" si="10"/>
+        <f>(B96+C96)/2</f>
         <v>6.5</v>
       </c>
       <c r="E96" s="7">
-        <f t="shared" si="11"/>
+        <f>D96/(SUM($D$7:$D$184))</f>
         <v>5.8113544926240504E-3</v>
       </c>
       <c r="F96">
         <v>5</v>
       </c>
       <c r="G96" s="7">
-        <f t="shared" si="12"/>
+        <f>F96/(SUM($F$7:$F$184))</f>
         <v>5.2742616033755272E-3</v>
       </c>
       <c r="H96">
         <v>5</v>
       </c>
       <c r="I96" s="7">
-        <f t="shared" si="13"/>
+        <f>H96/(SUM($H$7:$H$184))</f>
         <v>6.41025641025641E-3</v>
       </c>
       <c r="J96" s="5">
-        <f t="shared" si="14"/>
+        <f>E96/(G96+I96)</f>
         <v>0.49735508866040834</v>
       </c>
     </row>
@@ -4675,29 +4675,29 @@
         <v>8</v>
       </c>
       <c r="D97" s="6">
-        <f t="shared" si="10"/>
+        <f>(B97+C97)/2</f>
         <v>6.5</v>
       </c>
       <c r="E97" s="7">
-        <f t="shared" si="11"/>
+        <f>D97/(SUM($D$7:$D$184))</f>
         <v>5.8113544926240504E-3</v>
       </c>
       <c r="F97">
         <v>5</v>
       </c>
       <c r="G97" s="7">
-        <f t="shared" si="12"/>
+        <f>F97/(SUM($F$7:$F$184))</f>
         <v>5.2742616033755272E-3</v>
       </c>
       <c r="H97">
         <v>5</v>
       </c>
       <c r="I97" s="7">
-        <f t="shared" si="13"/>
+        <f>H97/(SUM($H$7:$H$184))</f>
         <v>6.41025641025641E-3</v>
       </c>
       <c r="J97" s="5">
-        <f t="shared" si="14"/>
+        <f>E97/(G97+I97)</f>
         <v>0.49735508866040834</v>
       </c>
     </row>
@@ -4712,29 +4712,29 @@
         <v>7</v>
       </c>
       <c r="D98" s="6">
-        <f t="shared" si="10"/>
+        <f>(B98+C98)/2</f>
         <v>6.5</v>
       </c>
       <c r="E98" s="7">
-        <f t="shared" si="11"/>
+        <f>D98/(SUM($D$7:$D$184))</f>
         <v>5.8113544926240504E-3</v>
       </c>
       <c r="F98">
         <v>5</v>
       </c>
       <c r="G98" s="7">
-        <f t="shared" si="12"/>
+        <f>F98/(SUM($F$7:$F$184))</f>
         <v>5.2742616033755272E-3</v>
       </c>
       <c r="H98">
         <v>5</v>
       </c>
       <c r="I98" s="7">
-        <f t="shared" si="13"/>
+        <f>H98/(SUM($H$7:$H$184))</f>
         <v>6.41025641025641E-3</v>
       </c>
       <c r="J98" s="5">
-        <f t="shared" si="14"/>
+        <f>E98/(G98+I98)</f>
         <v>0.49735508866040834</v>
       </c>
     </row>
@@ -4749,29 +4749,29 @@
         <v>9</v>
       </c>
       <c r="D99" s="6">
-        <f t="shared" si="10"/>
+        <f>(B99+C99)/2</f>
         <v>8.5</v>
       </c>
       <c r="E99" s="7">
-        <f t="shared" si="11"/>
+        <f>D99/(SUM($D$7:$D$184))</f>
         <v>7.5994635672776041E-3</v>
       </c>
       <c r="F99">
         <v>6</v>
       </c>
       <c r="G99" s="7">
-        <f t="shared" si="12"/>
+        <f>F99/(SUM($F$7:$F$184))</f>
         <v>6.3291139240506328E-3</v>
       </c>
       <c r="H99">
         <v>7</v>
       </c>
       <c r="I99" s="7">
-        <f t="shared" si="13"/>
+        <f>H99/(SUM($H$7:$H$184))</f>
         <v>8.9743589743589737E-3</v>
       </c>
       <c r="J99" s="5">
-        <f t="shared" si="14"/>
+        <f>E99/(G99+I99)</f>
         <v>0.49658424710036692</v>
       </c>
     </row>
@@ -4786,29 +4786,29 @@
         <v>5</v>
       </c>
       <c r="D100" s="6">
-        <f t="shared" si="10"/>
+        <f>(B100+C100)/2</f>
         <v>5</v>
       </c>
       <c r="E100" s="7">
-        <f t="shared" si="11"/>
+        <f>D100/(SUM($D$7:$D$184))</f>
         <v>4.4702726866338843E-3</v>
       </c>
       <c r="F100">
         <v>5</v>
       </c>
       <c r="G100" s="7">
-        <f t="shared" si="12"/>
+        <f>F100/(SUM($F$7:$F$184))</f>
         <v>5.2742616033755272E-3</v>
       </c>
       <c r="H100">
         <v>3</v>
       </c>
       <c r="I100" s="7">
-        <f t="shared" si="13"/>
+        <f>H100/(SUM($H$7:$H$184))</f>
         <v>3.8461538461538464E-3</v>
       </c>
       <c r="J100" s="5">
-        <f t="shared" si="14"/>
+        <f>E100/(G100+I100)</f>
         <v>0.4901391511572597</v>
       </c>
     </row>
@@ -4823,29 +4823,29 @@
         <v>5</v>
       </c>
       <c r="D101" s="6">
-        <f t="shared" si="10"/>
+        <f>(B101+C101)/2</f>
         <v>5</v>
       </c>
       <c r="E101" s="7">
-        <f t="shared" si="11"/>
+        <f>D101/(SUM($D$7:$D$184))</f>
         <v>4.4702726866338843E-3</v>
       </c>
       <c r="F101">
         <v>5</v>
       </c>
       <c r="G101" s="7">
-        <f t="shared" si="12"/>
+        <f>F101/(SUM($F$7:$F$184))</f>
         <v>5.2742616033755272E-3</v>
       </c>
       <c r="H101">
         <v>3</v>
       </c>
       <c r="I101" s="7">
-        <f t="shared" si="13"/>
+        <f>H101/(SUM($H$7:$H$184))</f>
         <v>3.8461538461538464E-3</v>
       </c>
       <c r="J101" s="5">
-        <f t="shared" si="14"/>
+        <f>E101/(G101+I101)</f>
         <v>0.4901391511572597</v>
       </c>
     </row>
@@ -4860,29 +4860,29 @@
         <v>7</v>
       </c>
       <c r="D102" s="6">
-        <f t="shared" si="10"/>
+        <f>(B102+C102)/2</f>
         <v>6.5</v>
       </c>
       <c r="E102" s="7">
-        <f t="shared" si="11"/>
+        <f>D102/(SUM($D$7:$D$184))</f>
         <v>5.8113544926240504E-3</v>
       </c>
       <c r="F102">
         <v>4</v>
       </c>
       <c r="G102" s="7">
-        <f t="shared" si="12"/>
+        <f>F102/(SUM($F$7:$F$184))</f>
         <v>4.2194092827004216E-3</v>
       </c>
       <c r="H102">
         <v>6</v>
       </c>
       <c r="I102" s="7">
-        <f t="shared" si="13"/>
+        <f>H102/(SUM($H$7:$H$184))</f>
         <v>7.6923076923076927E-3</v>
       </c>
       <c r="J102" s="5">
-        <f t="shared" si="14"/>
+        <f>E102/(G102+I102)</f>
         <v>0.48786875181947403</v>
       </c>
     </row>
@@ -4897,29 +4897,29 @@
         <v>6</v>
       </c>
       <c r="D103" s="6">
-        <f t="shared" ref="D103:D134" si="15">(B103+C103)/2</f>
+        <f>(B103+C103)/2</f>
         <v>5.5</v>
       </c>
       <c r="E103" s="7">
-        <f t="shared" ref="E103:E134" si="16">D103/(SUM($D$7:$D$184))</f>
+        <f>D103/(SUM($D$7:$D$184))</f>
         <v>4.9172999552972736E-3</v>
       </c>
       <c r="F103">
         <v>6</v>
       </c>
       <c r="G103" s="7">
-        <f t="shared" ref="G103:G134" si="17">F103/(SUM($F$7:$F$184))</f>
+        <f>F103/(SUM($F$7:$F$184))</f>
         <v>6.3291139240506328E-3</v>
       </c>
       <c r="H103">
         <v>3</v>
       </c>
       <c r="I103" s="7">
-        <f t="shared" ref="I103:I134" si="18">H103/(SUM($H$7:$H$184))</f>
+        <f>H103/(SUM($H$7:$H$184))</f>
         <v>3.8461538461538464E-3</v>
       </c>
       <c r="J103" s="5">
-        <f t="shared" ref="J103:J134" si="19">E103/(G103+I103)</f>
+        <f>E103/(G103+I103)</f>
         <v>0.48326000517610529</v>
       </c>
     </row>
@@ -4934,29 +4934,29 @@
         <v>6</v>
       </c>
       <c r="D104" s="6">
-        <f t="shared" si="15"/>
+        <f>(B104+C104)/2</f>
         <v>5.5</v>
       </c>
       <c r="E104" s="7">
-        <f t="shared" si="16"/>
+        <f>D104/(SUM($D$7:$D$184))</f>
         <v>4.9172999552972736E-3</v>
       </c>
       <c r="F104">
         <v>6</v>
       </c>
       <c r="G104" s="7">
-        <f t="shared" si="17"/>
+        <f>F104/(SUM($F$7:$F$184))</f>
         <v>6.3291139240506328E-3</v>
       </c>
       <c r="H104">
         <v>3</v>
       </c>
       <c r="I104" s="7">
-        <f t="shared" si="18"/>
+        <f>H104/(SUM($H$7:$H$184))</f>
         <v>3.8461538461538464E-3</v>
       </c>
       <c r="J104" s="5">
-        <f t="shared" si="19"/>
+        <f>E104/(G104+I104)</f>
         <v>0.48326000517610529</v>
       </c>
     </row>
@@ -4971,29 +4971,29 @@
         <v>8</v>
       </c>
       <c r="D105" s="6">
-        <f t="shared" si="15"/>
+        <f>(B105+C105)/2</f>
         <v>8</v>
       </c>
       <c r="E105" s="7">
-        <f t="shared" si="16"/>
+        <f>D105/(SUM($D$7:$D$184))</f>
         <v>7.1524362986142157E-3</v>
       </c>
       <c r="F105">
         <v>8</v>
       </c>
       <c r="G105" s="7">
-        <f t="shared" si="17"/>
+        <f>F105/(SUM($F$7:$F$184))</f>
         <v>8.4388185654008432E-3</v>
       </c>
       <c r="H105">
         <v>5</v>
       </c>
       <c r="I105" s="7">
-        <f t="shared" si="18"/>
+        <f>H105/(SUM($H$7:$H$184))</f>
         <v>6.41025641025641E-3</v>
       </c>
       <c r="J105" s="5">
-        <f t="shared" si="19"/>
+        <f>E105/(G105+I105)</f>
         <v>0.481675546142741</v>
       </c>
     </row>
@@ -5008,29 +5008,29 @@
         <v>5</v>
       </c>
       <c r="D106" s="6">
-        <f t="shared" si="15"/>
+        <f>(B106+C106)/2</f>
         <v>5</v>
       </c>
       <c r="E106" s="7">
-        <f t="shared" si="16"/>
+        <f>D106/(SUM($D$7:$D$184))</f>
         <v>4.4702726866338843E-3</v>
       </c>
       <c r="F106">
         <v>4</v>
       </c>
       <c r="G106" s="7">
-        <f t="shared" si="17"/>
+        <f>F106/(SUM($F$7:$F$184))</f>
         <v>4.2194092827004216E-3</v>
       </c>
       <c r="H106">
         <v>4</v>
       </c>
       <c r="I106" s="7">
-        <f t="shared" si="18"/>
+        <f>H106/(SUM($H$7:$H$184))</f>
         <v>5.1282051282051282E-3</v>
       </c>
       <c r="J106" s="5">
-        <f t="shared" si="19"/>
+        <f>E106/(G106+I106)</f>
         <v>0.47822604678885411</v>
       </c>
     </row>
@@ -5045,29 +5045,29 @@
         <v>5</v>
       </c>
       <c r="D107" s="6">
-        <f t="shared" si="15"/>
+        <f>(B107+C107)/2</f>
         <v>5</v>
       </c>
       <c r="E107" s="7">
-        <f t="shared" si="16"/>
+        <f>D107/(SUM($D$7:$D$184))</f>
         <v>4.4702726866338843E-3</v>
       </c>
       <c r="F107">
         <v>4</v>
       </c>
       <c r="G107" s="7">
-        <f t="shared" si="17"/>
+        <f>F107/(SUM($F$7:$F$184))</f>
         <v>4.2194092827004216E-3</v>
       </c>
       <c r="H107">
         <v>4</v>
       </c>
       <c r="I107" s="7">
-        <f t="shared" si="18"/>
+        <f>H107/(SUM($H$7:$H$184))</f>
         <v>5.1282051282051282E-3</v>
       </c>
       <c r="J107" s="5">
-        <f t="shared" si="19"/>
+        <f>E107/(G107+I107)</f>
         <v>0.47822604678885411</v>
       </c>
     </row>
@@ -5082,29 +5082,29 @@
         <v>6</v>
       </c>
       <c r="D108" s="6">
-        <f t="shared" si="15"/>
+        <f>(B108+C108)/2</f>
         <v>6</v>
       </c>
       <c r="E108" s="7">
-        <f t="shared" si="16"/>
+        <f>D108/(SUM($D$7:$D$184))</f>
         <v>5.364327223960662E-3</v>
       </c>
       <c r="F108">
         <v>7</v>
       </c>
       <c r="G108" s="7">
-        <f t="shared" si="17"/>
+        <f>F108/(SUM($F$7:$F$184))</f>
         <v>7.3839662447257384E-3</v>
       </c>
       <c r="H108">
         <v>3</v>
       </c>
       <c r="I108" s="7">
-        <f t="shared" si="18"/>
+        <f>H108/(SUM($H$7:$H$184))</f>
         <v>3.8461538461538464E-3</v>
       </c>
       <c r="J108" s="5">
-        <f t="shared" si="19"/>
+        <f>E108/(G108+I108)</f>
         <v>0.47767318430701733</v>
       </c>
     </row>
@@ -5119,29 +5119,29 @@
         <v>9</v>
       </c>
       <c r="D109" s="6">
-        <f t="shared" si="15"/>
+        <f>(B109+C109)/2</f>
         <v>8</v>
       </c>
       <c r="E109" s="7">
-        <f t="shared" si="16"/>
+        <f>D109/(SUM($D$7:$D$184))</f>
         <v>7.1524362986142157E-3</v>
       </c>
       <c r="F109">
         <v>7</v>
       </c>
       <c r="G109" s="7">
-        <f t="shared" si="17"/>
+        <f>F109/(SUM($F$7:$F$184))</f>
         <v>7.3839662447257384E-3</v>
       </c>
       <c r="H109">
         <v>6</v>
       </c>
       <c r="I109" s="7">
-        <f t="shared" si="18"/>
+        <f>H109/(SUM($H$7:$H$184))</f>
         <v>7.6923076923076927E-3</v>
       </c>
       <c r="J109" s="5">
-        <f t="shared" si="19"/>
+        <f>E109/(G109+I109)</f>
         <v>0.47441671121701612</v>
       </c>
     </row>
@@ -5156,29 +5156,29 @@
         <v>7</v>
       </c>
       <c r="D110" s="6">
-        <f t="shared" si="15"/>
+        <f>(B110+C110)/2</f>
         <v>7</v>
       </c>
       <c r="E110" s="7">
-        <f t="shared" si="16"/>
+        <f>D110/(SUM($D$7:$D$184))</f>
         <v>6.2583817612874388E-3</v>
       </c>
       <c r="F110">
         <v>4</v>
       </c>
       <c r="G110" s="7">
-        <f t="shared" si="17"/>
+        <f>F110/(SUM($F$7:$F$184))</f>
         <v>4.2194092827004216E-3</v>
       </c>
       <c r="H110">
         <v>7</v>
       </c>
       <c r="I110" s="7">
-        <f t="shared" si="18"/>
+        <f>H110/(SUM($H$7:$H$184))</f>
         <v>8.9743589743589737E-3</v>
       </c>
       <c r="J110" s="5">
-        <f t="shared" si="19"/>
+        <f>E110/(G110+I110)</f>
         <v>0.47434376891824354</v>
       </c>
     </row>
@@ -5193,29 +5193,29 @@
         <v>6</v>
       </c>
       <c r="D111" s="6">
-        <f t="shared" si="15"/>
+        <f>(B111+C111)/2</f>
         <v>6</v>
       </c>
       <c r="E111" s="7">
-        <f t="shared" si="16"/>
+        <f>D111/(SUM($D$7:$D$184))</f>
         <v>5.364327223960662E-3</v>
       </c>
       <c r="F111">
         <v>6</v>
       </c>
       <c r="G111" s="7">
-        <f t="shared" si="17"/>
+        <f>F111/(SUM($F$7:$F$184))</f>
         <v>6.3291139240506328E-3</v>
       </c>
       <c r="H111">
         <v>4</v>
       </c>
       <c r="I111" s="7">
-        <f t="shared" si="18"/>
+        <f>H111/(SUM($H$7:$H$184))</f>
         <v>5.1282051282051282E-3</v>
       </c>
       <c r="J111" s="5">
-        <f t="shared" si="19"/>
+        <f>E111/(G111+I111)</f>
         <v>0.46820091153039095</v>
       </c>
     </row>
@@ -5230,29 +5230,29 @@
         <v>7</v>
       </c>
       <c r="D112" s="6">
-        <f t="shared" si="15"/>
+        <f>(B112+C112)/2</f>
         <v>6.5</v>
       </c>
       <c r="E112" s="7">
-        <f t="shared" si="16"/>
+        <f>D112/(SUM($D$7:$D$184))</f>
         <v>5.8113544926240504E-3</v>
       </c>
       <c r="F112">
         <v>6</v>
       </c>
       <c r="G112" s="7">
-        <f t="shared" si="17"/>
+        <f>F112/(SUM($F$7:$F$184))</f>
         <v>6.3291139240506328E-3</v>
       </c>
       <c r="H112">
         <v>5</v>
       </c>
       <c r="I112" s="7">
-        <f t="shared" si="18"/>
+        <f>H112/(SUM($H$7:$H$184))</f>
         <v>6.41025641025641E-3</v>
       </c>
       <c r="J112" s="5">
-        <f t="shared" si="19"/>
+        <f>E112/(G112+I112)</f>
         <v>0.4561728201726038</v>
       </c>
     </row>
@@ -5267,29 +5267,29 @@
         <v>7</v>
       </c>
       <c r="D113" s="6">
-        <f t="shared" si="15"/>
+        <f>(B113+C113)/2</f>
         <v>7</v>
       </c>
       <c r="E113" s="7">
-        <f t="shared" si="16"/>
+        <f>D113/(SUM($D$7:$D$184))</f>
         <v>6.2583817612874388E-3</v>
       </c>
       <c r="F113">
         <v>7</v>
       </c>
       <c r="G113" s="7">
-        <f t="shared" si="17"/>
+        <f>F113/(SUM($F$7:$F$184))</f>
         <v>7.3839662447257384E-3</v>
       </c>
       <c r="H113">
         <v>5</v>
       </c>
       <c r="I113" s="7">
-        <f t="shared" si="18"/>
+        <f>H113/(SUM($H$7:$H$184))</f>
         <v>6.41025641025641E-3</v>
       </c>
       <c r="J113" s="5">
-        <f t="shared" si="19"/>
+        <f>E113/(G113+I113)</f>
         <v>0.45369586368297882</v>
       </c>
     </row>
@@ -5304,29 +5304,29 @@
         <v>7</v>
       </c>
       <c r="D114" s="6">
-        <f t="shared" si="15"/>
+        <f>(B114+C114)/2</f>
         <v>7</v>
       </c>
       <c r="E114" s="7">
-        <f t="shared" si="16"/>
+        <f>D114/(SUM($D$7:$D$184))</f>
         <v>6.2583817612874388E-3</v>
       </c>
       <c r="F114">
         <v>7</v>
       </c>
       <c r="G114" s="7">
-        <f t="shared" si="17"/>
+        <f>F114/(SUM($F$7:$F$184))</f>
         <v>7.3839662447257384E-3</v>
       </c>
       <c r="H114">
         <v>5</v>
       </c>
       <c r="I114" s="7">
-        <f t="shared" si="18"/>
+        <f>H114/(SUM($H$7:$H$184))</f>
         <v>6.41025641025641E-3</v>
       </c>
       <c r="J114" s="5">
-        <f t="shared" si="19"/>
+        <f>E114/(G114+I114)</f>
         <v>0.45369586368297882</v>
       </c>
     </row>
@@ -5341,29 +5341,29 @@
         <v>8</v>
       </c>
       <c r="D115" s="6">
-        <f t="shared" si="15"/>
+        <f>(B115+C115)/2</f>
         <v>8</v>
       </c>
       <c r="E115" s="7">
-        <f t="shared" si="16"/>
+        <f>D115/(SUM($D$7:$D$184))</f>
         <v>7.1524362986142157E-3</v>
       </c>
       <c r="F115">
         <v>9</v>
       </c>
       <c r="G115" s="7">
-        <f t="shared" si="17"/>
+        <f>F115/(SUM($F$7:$F$184))</f>
         <v>9.4936708860759497E-3</v>
       </c>
       <c r="H115">
         <v>5</v>
       </c>
       <c r="I115" s="7">
-        <f t="shared" si="18"/>
+        <f>H115/(SUM($H$7:$H$184))</f>
         <v>6.41025641025641E-3</v>
       </c>
       <c r="J115" s="5">
-        <f t="shared" si="19"/>
+        <f>E115/(G115+I115)</f>
         <v>0.44972767828633464</v>
       </c>
     </row>
@@ -5378,29 +5378,29 @@
         <v>7</v>
       </c>
       <c r="D116" s="6">
-        <f t="shared" si="15"/>
+        <f>(B116+C116)/2</f>
         <v>6.5</v>
       </c>
       <c r="E116" s="7">
-        <f t="shared" si="16"/>
+        <f>D116/(SUM($D$7:$D$184))</f>
         <v>5.8113544926240504E-3</v>
       </c>
       <c r="F116">
         <v>5</v>
       </c>
       <c r="G116" s="7">
-        <f t="shared" si="17"/>
+        <f>F116/(SUM($F$7:$F$184))</f>
         <v>5.2742616033755272E-3</v>
       </c>
       <c r="H116">
         <v>6</v>
       </c>
       <c r="I116" s="7">
-        <f t="shared" si="18"/>
+        <f>H116/(SUM($H$7:$H$184))</f>
         <v>7.6923076923076927E-3</v>
       </c>
       <c r="J116" s="5">
-        <f t="shared" si="19"/>
+        <f>E116/(G116+I116)</f>
         <v>0.44817980455005507</v>
       </c>
     </row>
@@ -5415,29 +5415,29 @@
         <v>7</v>
       </c>
       <c r="D117" s="6">
-        <f t="shared" si="15"/>
+        <f>(B117+C117)/2</f>
         <v>7</v>
       </c>
       <c r="E117" s="7">
-        <f t="shared" si="16"/>
+        <f>D117/(SUM($D$7:$D$184))</f>
         <v>6.2583817612874388E-3</v>
       </c>
       <c r="F117">
         <v>6</v>
       </c>
       <c r="G117" s="7">
-        <f t="shared" si="17"/>
+        <f>F117/(SUM($F$7:$F$184))</f>
         <v>6.3291139240506328E-3</v>
       </c>
       <c r="H117">
         <v>6</v>
       </c>
       <c r="I117" s="7">
-        <f t="shared" si="18"/>
+        <f>H117/(SUM($H$7:$H$184))</f>
         <v>7.6923076923076927E-3</v>
       </c>
       <c r="J117" s="5">
-        <f t="shared" si="19"/>
+        <f>E117/(G117+I117)</f>
         <v>0.44634431033626387</v>
       </c>
     </row>
@@ -5452,29 +5452,29 @@
         <v>7</v>
       </c>
       <c r="D118" s="6">
-        <f t="shared" si="15"/>
+        <f>(B118+C118)/2</f>
         <v>7</v>
       </c>
       <c r="E118" s="7">
-        <f t="shared" si="16"/>
+        <f>D118/(SUM($D$7:$D$184))</f>
         <v>6.2583817612874388E-3</v>
       </c>
       <c r="F118">
         <v>6</v>
       </c>
       <c r="G118" s="7">
-        <f t="shared" si="17"/>
+        <f>F118/(SUM($F$7:$F$184))</f>
         <v>6.3291139240506328E-3</v>
       </c>
       <c r="H118">
         <v>6</v>
       </c>
       <c r="I118" s="7">
-        <f t="shared" si="18"/>
+        <f>H118/(SUM($H$7:$H$184))</f>
         <v>7.6923076923076927E-3</v>
       </c>
       <c r="J118" s="5">
-        <f t="shared" si="19"/>
+        <f>E118/(G118+I118)</f>
         <v>0.44634431033626387</v>
       </c>
     </row>
@@ -5489,29 +5489,29 @@
         <v>8</v>
       </c>
       <c r="D119" s="6">
-        <f t="shared" si="15"/>
+        <f>(B119+C119)/2</f>
         <v>7</v>
       </c>
       <c r="E119" s="7">
-        <f t="shared" si="16"/>
+        <f>D119/(SUM($D$7:$D$184))</f>
         <v>6.2583817612874388E-3</v>
       </c>
       <c r="F119">
         <v>6</v>
       </c>
       <c r="G119" s="7">
-        <f t="shared" si="17"/>
+        <f>F119/(SUM($F$7:$F$184))</f>
         <v>6.3291139240506328E-3</v>
       </c>
       <c r="H119">
         <v>6</v>
       </c>
       <c r="I119" s="7">
-        <f t="shared" si="18"/>
+        <f>H119/(SUM($H$7:$H$184))</f>
         <v>7.6923076923076927E-3</v>
       </c>
       <c r="J119" s="5">
-        <f t="shared" si="19"/>
+        <f>E119/(G119+I119)</f>
         <v>0.44634431033626387</v>
       </c>
     </row>
@@ -5526,29 +5526,29 @@
         <v>8</v>
       </c>
       <c r="D120" s="6">
-        <f t="shared" si="15"/>
+        <f>(B120+C120)/2</f>
         <v>7.5</v>
       </c>
       <c r="E120" s="7">
-        <f t="shared" si="16"/>
+        <f>D120/(SUM($D$7:$D$184))</f>
         <v>6.7054090299508273E-3</v>
       </c>
       <c r="F120">
         <v>7</v>
       </c>
       <c r="G120" s="7">
-        <f t="shared" si="17"/>
+        <f>F120/(SUM($F$7:$F$184))</f>
         <v>7.3839662447257384E-3</v>
       </c>
       <c r="H120">
         <v>6</v>
       </c>
       <c r="I120" s="7">
-        <f t="shared" si="18"/>
+        <f>H120/(SUM($H$7:$H$184))</f>
         <v>7.6923076923076927E-3</v>
       </c>
       <c r="J120" s="5">
-        <f t="shared" si="19"/>
+        <f>E120/(G120+I120)</f>
         <v>0.44476566676595258</v>
       </c>
     </row>
@@ -5563,29 +5563,29 @@
         <v>4</v>
       </c>
       <c r="D121" s="6">
-        <f t="shared" si="15"/>
+        <f>(B121+C121)/2</f>
         <v>4</v>
       </c>
       <c r="E121" s="7">
-        <f t="shared" si="16"/>
+        <f>D121/(SUM($D$7:$D$184))</f>
         <v>3.5762181493071078E-3</v>
       </c>
       <c r="F121">
         <v>4</v>
       </c>
       <c r="G121" s="7">
-        <f t="shared" si="17"/>
+        <f>F121/(SUM($F$7:$F$184))</f>
         <v>4.2194092827004216E-3</v>
       </c>
       <c r="H121">
         <v>3</v>
       </c>
       <c r="I121" s="7">
-        <f t="shared" si="18"/>
+        <f>H121/(SUM($H$7:$H$184))</f>
         <v>3.8461538461538464E-3</v>
       </c>
       <c r="J121" s="5">
-        <f t="shared" si="19"/>
+        <f>E121/(G121+I121)</f>
         <v>0.44339348563441444</v>
       </c>
     </row>
@@ -5600,29 +5600,29 @@
         <v>8</v>
       </c>
       <c r="D122" s="6">
-        <f t="shared" si="15"/>
+        <f>(B122+C122)/2</f>
         <v>8</v>
       </c>
       <c r="E122" s="7">
-        <f t="shared" si="16"/>
+        <f>D122/(SUM($D$7:$D$184))</f>
         <v>7.1524362986142157E-3</v>
       </c>
       <c r="F122">
         <v>8</v>
       </c>
       <c r="G122" s="7">
-        <f t="shared" si="17"/>
+        <f>F122/(SUM($F$7:$F$184))</f>
         <v>8.4388185654008432E-3</v>
       </c>
       <c r="H122">
         <v>6</v>
       </c>
       <c r="I122" s="7">
-        <f t="shared" si="18"/>
+        <f>H122/(SUM($H$7:$H$184))</f>
         <v>7.6923076923076927E-3</v>
       </c>
       <c r="J122" s="5">
-        <f t="shared" si="19"/>
+        <f>E122/(G122+I122)</f>
         <v>0.44339348563441444</v>
       </c>
     </row>
@@ -5637,29 +5637,29 @@
         <v>5</v>
       </c>
       <c r="D123" s="6">
-        <f t="shared" si="15"/>
+        <f>(B123+C123)/2</f>
         <v>5</v>
       </c>
       <c r="E123" s="7">
-        <f t="shared" si="16"/>
+        <f>D123/(SUM($D$7:$D$184))</f>
         <v>4.4702726866338843E-3</v>
       </c>
       <c r="F123">
         <v>6</v>
       </c>
       <c r="G123" s="7">
-        <f t="shared" si="17"/>
+        <f>F123/(SUM($F$7:$F$184))</f>
         <v>6.3291139240506328E-3</v>
       </c>
       <c r="H123">
         <v>3</v>
       </c>
       <c r="I123" s="7">
-        <f t="shared" si="18"/>
+        <f>H123/(SUM($H$7:$H$184))</f>
         <v>3.8461538461538464E-3</v>
       </c>
       <c r="J123" s="5">
-        <f t="shared" si="19"/>
+        <f>E123/(G123+I123)</f>
         <v>0.4393272774328229</v>
       </c>
     </row>
@@ -5674,29 +5674,29 @@
         <v>8</v>
       </c>
       <c r="D124" s="6">
-        <f t="shared" si="15"/>
+        <f>(B124+C124)/2</f>
         <v>7.5</v>
       </c>
       <c r="E124" s="7">
-        <f t="shared" si="16"/>
+        <f>D124/(SUM($D$7:$D$184))</f>
         <v>6.7054090299508273E-3</v>
       </c>
       <c r="F124">
         <v>6</v>
       </c>
       <c r="G124" s="7">
-        <f t="shared" si="17"/>
+        <f>F124/(SUM($F$7:$F$184))</f>
         <v>6.3291139240506328E-3</v>
       </c>
       <c r="H124">
         <v>7</v>
       </c>
       <c r="I124" s="7">
-        <f t="shared" si="18"/>
+        <f>H124/(SUM($H$7:$H$184))</f>
         <v>8.9743589743589737E-3</v>
       </c>
       <c r="J124" s="5">
-        <f t="shared" si="19"/>
+        <f>E124/(G124+I124)</f>
         <v>0.43816257097091199</v>
       </c>
     </row>
@@ -5711,29 +5711,29 @@
         <v>7</v>
       </c>
       <c r="D125" s="6">
-        <f t="shared" si="15"/>
+        <f>(B125+C125)/2</f>
         <v>6.5</v>
       </c>
       <c r="E125" s="7">
-        <f t="shared" si="16"/>
+        <f>D125/(SUM($D$7:$D$184))</f>
         <v>5.8113544926240504E-3</v>
       </c>
       <c r="F125">
         <v>9</v>
       </c>
       <c r="G125" s="7">
-        <f t="shared" si="17"/>
+        <f>F125/(SUM($F$7:$F$184))</f>
         <v>9.4936708860759497E-3</v>
       </c>
       <c r="H125">
         <v>3</v>
       </c>
       <c r="I125" s="7">
-        <f t="shared" si="18"/>
+        <f>H125/(SUM($H$7:$H$184))</f>
         <v>3.8461538461538464E-3</v>
       </c>
       <c r="J125" s="5">
-        <f t="shared" si="19"/>
+        <f>E125/(G125+I125)</f>
         <v>0.43563949371714594</v>
       </c>
     </row>
@@ -5748,29 +5748,29 @@
         <v>5</v>
       </c>
       <c r="D126" s="6">
-        <f t="shared" si="15"/>
+        <f>(B126+C126)/2</f>
         <v>5</v>
       </c>
       <c r="E126" s="7">
-        <f t="shared" si="16"/>
+        <f>D126/(SUM($D$7:$D$184))</f>
         <v>4.4702726866338843E-3</v>
       </c>
       <c r="F126">
         <v>5</v>
       </c>
       <c r="G126" s="7">
-        <f t="shared" si="17"/>
+        <f>F126/(SUM($F$7:$F$184))</f>
         <v>5.2742616033755272E-3</v>
       </c>
       <c r="H126">
         <v>4</v>
       </c>
       <c r="I126" s="7">
-        <f t="shared" si="18"/>
+        <f>H126/(SUM($H$7:$H$184))</f>
         <v>5.1282051282051282E-3</v>
       </c>
       <c r="J126" s="5">
-        <f t="shared" si="19"/>
+        <f>E126/(G126+I126)</f>
         <v>0.42973198588202799</v>
       </c>
     </row>
@@ -5785,29 +5785,29 @@
         <v>5</v>
       </c>
       <c r="D127" s="6">
-        <f t="shared" si="15"/>
+        <f>(B127+C127)/2</f>
         <v>5</v>
       </c>
       <c r="E127" s="7">
-        <f t="shared" si="16"/>
+        <f>D127/(SUM($D$7:$D$184))</f>
         <v>4.4702726866338843E-3</v>
       </c>
       <c r="F127">
         <v>5</v>
       </c>
       <c r="G127" s="7">
-        <f t="shared" si="17"/>
+        <f>F127/(SUM($F$7:$F$184))</f>
         <v>5.2742616033755272E-3</v>
       </c>
       <c r="H127">
         <v>4</v>
       </c>
       <c r="I127" s="7">
-        <f t="shared" si="18"/>
+        <f>H127/(SUM($H$7:$H$184))</f>
         <v>5.1282051282051282E-3</v>
       </c>
       <c r="J127" s="5">
-        <f t="shared" si="19"/>
+        <f>E127/(G127+I127)</f>
         <v>0.42973198588202799</v>
       </c>
     </row>
@@ -5822,29 +5822,29 @@
         <v>6</v>
       </c>
       <c r="D128" s="6">
-        <f t="shared" si="15"/>
+        <f>(B128+C128)/2</f>
         <v>5.5</v>
       </c>
       <c r="E128" s="7">
-        <f t="shared" si="16"/>
+        <f>D128/(SUM($D$7:$D$184))</f>
         <v>4.9172999552972736E-3</v>
       </c>
       <c r="F128">
         <v>6</v>
       </c>
       <c r="G128" s="7">
-        <f t="shared" si="17"/>
+        <f>F128/(SUM($F$7:$F$184))</f>
         <v>6.3291139240506328E-3</v>
       </c>
       <c r="H128">
         <v>4</v>
       </c>
       <c r="I128" s="7">
-        <f t="shared" si="18"/>
+        <f>H128/(SUM($H$7:$H$184))</f>
         <v>5.1282051282051282E-3</v>
       </c>
       <c r="J128" s="5">
-        <f t="shared" si="19"/>
+        <f>E128/(G128+I128)</f>
         <v>0.42918416890285838</v>
       </c>
     </row>
@@ -5859,29 +5859,29 @@
         <v>6</v>
       </c>
       <c r="D129" s="6">
-        <f t="shared" si="15"/>
+        <f>(B129+C129)/2</f>
         <v>5.5</v>
       </c>
       <c r="E129" s="7">
-        <f t="shared" si="16"/>
+        <f>D129/(SUM($D$7:$D$184))</f>
         <v>4.9172999552972736E-3</v>
       </c>
       <c r="F129">
         <v>6</v>
       </c>
       <c r="G129" s="7">
-        <f t="shared" si="17"/>
+        <f>F129/(SUM($F$7:$F$184))</f>
         <v>6.3291139240506328E-3</v>
       </c>
       <c r="H129">
         <v>4</v>
       </c>
       <c r="I129" s="7">
-        <f t="shared" si="18"/>
+        <f>H129/(SUM($H$7:$H$184))</f>
         <v>5.1282051282051282E-3</v>
       </c>
       <c r="J129" s="5">
-        <f t="shared" si="19"/>
+        <f>E129/(G129+I129)</f>
         <v>0.42918416890285838</v>
       </c>
     </row>
@@ -5896,29 +5896,29 @@
         <v>6</v>
       </c>
       <c r="D130" s="6">
-        <f t="shared" si="15"/>
+        <f>(B130+C130)/2</f>
         <v>6</v>
       </c>
       <c r="E130" s="7">
-        <f t="shared" si="16"/>
+        <f>D130/(SUM($D$7:$D$184))</f>
         <v>5.364327223960662E-3</v>
       </c>
       <c r="F130">
         <v>7</v>
       </c>
       <c r="G130" s="7">
-        <f t="shared" si="17"/>
+        <f>F130/(SUM($F$7:$F$184))</f>
         <v>7.3839662447257384E-3</v>
       </c>
       <c r="H130">
         <v>4</v>
       </c>
       <c r="I130" s="7">
-        <f t="shared" si="18"/>
+        <f>H130/(SUM($H$7:$H$184))</f>
         <v>5.1282051282051282E-3</v>
       </c>
       <c r="J130" s="5">
-        <f t="shared" si="19"/>
+        <f>E130/(G130+I130)</f>
         <v>0.42872872054533856</v>
       </c>
     </row>
@@ -5933,29 +5933,29 @@
         <v>8</v>
       </c>
       <c r="D131" s="6">
-        <f t="shared" si="15"/>
+        <f>(B131+C131)/2</f>
         <v>6.5</v>
       </c>
       <c r="E131" s="7">
-        <f t="shared" si="16"/>
+        <f>D131/(SUM($D$7:$D$184))</f>
         <v>5.8113544926240504E-3</v>
       </c>
       <c r="F131">
         <v>8</v>
       </c>
       <c r="G131" s="7">
-        <f t="shared" si="17"/>
+        <f>F131/(SUM($F$7:$F$184))</f>
         <v>8.4388185654008432E-3</v>
       </c>
       <c r="H131">
         <v>4</v>
       </c>
       <c r="I131" s="7">
-        <f t="shared" si="18"/>
+        <f>H131/(SUM($H$7:$H$184))</f>
         <v>5.1282051282051282E-3</v>
       </c>
       <c r="J131" s="5">
-        <f t="shared" si="19"/>
+        <f>E131/(G131+I131)</f>
         <v>0.42834409549700236</v>
       </c>
     </row>
@@ -5970,29 +5970,29 @@
         <v>8</v>
       </c>
       <c r="D132" s="6">
-        <f t="shared" si="15"/>
+        <f>(B132+C132)/2</f>
         <v>6.5</v>
       </c>
       <c r="E132" s="7">
-        <f t="shared" si="16"/>
+        <f>D132/(SUM($D$7:$D$184))</f>
         <v>5.8113544926240504E-3</v>
       </c>
       <c r="F132">
         <v>7</v>
       </c>
       <c r="G132" s="7">
-        <f t="shared" si="17"/>
+        <f>F132/(SUM($F$7:$F$184))</f>
         <v>7.3839662447257384E-3</v>
       </c>
       <c r="H132">
         <v>5</v>
       </c>
       <c r="I132" s="7">
-        <f t="shared" si="18"/>
+        <f>H132/(SUM($H$7:$H$184))</f>
         <v>6.41025641025641E-3</v>
       </c>
       <c r="J132" s="5">
-        <f t="shared" si="19"/>
+        <f>E132/(G132+I132)</f>
         <v>0.42128901627705173</v>
       </c>
     </row>
@@ -6007,29 +6007,29 @@
         <v>7</v>
       </c>
       <c r="D133" s="6">
-        <f t="shared" si="15"/>
+        <f>(B133+C133)/2</f>
         <v>6</v>
       </c>
       <c r="E133" s="7">
-        <f t="shared" si="16"/>
+        <f>D133/(SUM($D$7:$D$184))</f>
         <v>5.364327223960662E-3</v>
       </c>
       <c r="F133">
         <v>6</v>
       </c>
       <c r="G133" s="7">
-        <f t="shared" si="17"/>
+        <f>F133/(SUM($F$7:$F$184))</f>
         <v>6.3291139240506328E-3</v>
       </c>
       <c r="H133">
         <v>5</v>
       </c>
       <c r="I133" s="7">
-        <f t="shared" si="18"/>
+        <f>H133/(SUM($H$7:$H$184))</f>
         <v>6.41025641025641E-3</v>
       </c>
       <c r="J133" s="5">
-        <f t="shared" si="19"/>
+        <f>E133/(G133+I133)</f>
         <v>0.42108260323624963</v>
       </c>
     </row>
@@ -6044,29 +6044,29 @@
         <v>6</v>
       </c>
       <c r="D134" s="6">
-        <f t="shared" si="15"/>
+        <f>(B134+C134)/2</f>
         <v>5.5</v>
       </c>
       <c r="E134" s="7">
-        <f t="shared" si="16"/>
+        <f>D134/(SUM($D$7:$D$184))</f>
         <v>4.9172999552972736E-3</v>
       </c>
       <c r="F134">
         <v>5</v>
       </c>
       <c r="G134" s="7">
-        <f t="shared" si="17"/>
+        <f>F134/(SUM($F$7:$F$184))</f>
         <v>5.2742616033755272E-3</v>
       </c>
       <c r="H134">
         <v>5</v>
       </c>
       <c r="I134" s="7">
-        <f t="shared" si="18"/>
+        <f>H134/(SUM($H$7:$H$184))</f>
         <v>6.41025641025641E-3</v>
       </c>
       <c r="J134" s="5">
-        <f t="shared" si="19"/>
+        <f>E134/(G134+I134)</f>
         <v>0.42083892117419169</v>
       </c>
     </row>
@@ -6081,29 +6081,29 @@
         <v>7</v>
       </c>
       <c r="D135" s="6">
-        <f t="shared" ref="D135:D166" si="20">(B135+C135)/2</f>
+        <f>(B135+C135)/2</f>
         <v>6.5</v>
       </c>
       <c r="E135" s="7">
-        <f t="shared" ref="E135:E166" si="21">D135/(SUM($D$7:$D$184))</f>
+        <f>D135/(SUM($D$7:$D$184))</f>
         <v>5.8113544926240504E-3</v>
       </c>
       <c r="F135">
         <v>6</v>
       </c>
       <c r="G135" s="7">
-        <f t="shared" ref="G135:G166" si="22">F135/(SUM($F$7:$F$184))</f>
+        <f>F135/(SUM($F$7:$F$184))</f>
         <v>6.3291139240506328E-3</v>
       </c>
       <c r="H135">
         <v>6</v>
       </c>
       <c r="I135" s="7">
-        <f t="shared" ref="I135:I166" si="23">H135/(SUM($H$7:$H$184))</f>
+        <f>H135/(SUM($H$7:$H$184))</f>
         <v>7.6923076923076927E-3</v>
       </c>
       <c r="J135" s="5">
-        <f t="shared" ref="J135:J166" si="24">E135/(G135+I135)</f>
+        <f>E135/(G135+I135)</f>
         <v>0.41446257388367364</v>
       </c>
     </row>
@@ -6118,29 +6118,29 @@
         <v>8</v>
       </c>
       <c r="D136" s="6">
-        <f t="shared" si="20"/>
+        <f>(B136+C136)/2</f>
         <v>6.5</v>
       </c>
       <c r="E136" s="7">
-        <f t="shared" si="21"/>
+        <f>D136/(SUM($D$7:$D$184))</f>
         <v>5.8113544926240504E-3</v>
       </c>
       <c r="F136">
         <v>6</v>
       </c>
       <c r="G136" s="7">
-        <f t="shared" si="22"/>
+        <f>F136/(SUM($F$7:$F$184))</f>
         <v>6.3291139240506328E-3</v>
       </c>
       <c r="H136">
         <v>6</v>
       </c>
       <c r="I136" s="7">
-        <f t="shared" si="23"/>
+        <f>H136/(SUM($H$7:$H$184))</f>
         <v>7.6923076923076927E-3</v>
       </c>
       <c r="J136" s="5">
-        <f t="shared" si="24"/>
+        <f>E136/(G136+I136)</f>
         <v>0.41446257388367364</v>
       </c>
     </row>
@@ -6155,29 +6155,29 @@
         <v>7</v>
       </c>
       <c r="D137" s="6">
-        <f t="shared" si="20"/>
+        <f>(B137+C137)/2</f>
         <v>6</v>
       </c>
       <c r="E137" s="7">
-        <f t="shared" si="21"/>
+        <f>D137/(SUM($D$7:$D$184))</f>
         <v>5.364327223960662E-3</v>
       </c>
       <c r="F137">
         <v>5</v>
       </c>
       <c r="G137" s="7">
-        <f t="shared" si="22"/>
+        <f>F137/(SUM($F$7:$F$184))</f>
         <v>5.2742616033755272E-3</v>
       </c>
       <c r="H137">
         <v>6</v>
       </c>
       <c r="I137" s="7">
-        <f t="shared" si="23"/>
+        <f>H137/(SUM($H$7:$H$184))</f>
         <v>7.6923076923076927E-3</v>
       </c>
       <c r="J137" s="5">
-        <f t="shared" si="24"/>
+        <f>E137/(G137+I137)</f>
         <v>0.41370443496928161</v>
       </c>
     </row>
@@ -6192,29 +6192,29 @@
         <v>6</v>
       </c>
       <c r="D138" s="6">
-        <f t="shared" si="20"/>
+        <f>(B138+C138)/2</f>
         <v>5.5</v>
       </c>
       <c r="E138" s="7">
-        <f t="shared" si="21"/>
+        <f>D138/(SUM($D$7:$D$184))</f>
         <v>4.9172999552972736E-3</v>
       </c>
       <c r="F138">
         <v>4</v>
       </c>
       <c r="G138" s="7">
-        <f t="shared" si="22"/>
+        <f>F138/(SUM($F$7:$F$184))</f>
         <v>4.2194092827004216E-3</v>
       </c>
       <c r="H138">
         <v>6</v>
       </c>
       <c r="I138" s="7">
-        <f t="shared" si="23"/>
+        <f>H138/(SUM($H$7:$H$184))</f>
         <v>7.6923076923076927E-3</v>
       </c>
       <c r="J138" s="5">
-        <f t="shared" si="24"/>
+        <f>E138/(G138+I138)</f>
         <v>0.4128120207703242</v>
       </c>
     </row>
@@ -6229,29 +6229,29 @@
         <v>6</v>
       </c>
       <c r="D139" s="6">
-        <f t="shared" si="20"/>
+        <f>(B139+C139)/2</f>
         <v>5.5</v>
       </c>
       <c r="E139" s="7">
-        <f t="shared" si="21"/>
+        <f>D139/(SUM($D$7:$D$184))</f>
         <v>4.9172999552972736E-3</v>
       </c>
       <c r="F139">
         <v>4</v>
       </c>
       <c r="G139" s="7">
-        <f t="shared" si="22"/>
+        <f>F139/(SUM($F$7:$F$184))</f>
         <v>4.2194092827004216E-3</v>
       </c>
       <c r="H139">
         <v>6</v>
       </c>
       <c r="I139" s="7">
-        <f t="shared" si="23"/>
+        <f>H139/(SUM($H$7:$H$184))</f>
         <v>7.6923076923076927E-3</v>
       </c>
       <c r="J139" s="5">
-        <f t="shared" si="24"/>
+        <f>E139/(G139+I139)</f>
         <v>0.4128120207703242</v>
       </c>
     </row>
@@ -6266,29 +6266,29 @@
         <v>8</v>
       </c>
       <c r="D140" s="6">
-        <f t="shared" si="20"/>
+        <f>(B140+C140)/2</f>
         <v>7.5</v>
       </c>
       <c r="E140" s="7">
-        <f t="shared" si="21"/>
+        <f>D140/(SUM($D$7:$D$184))</f>
         <v>6.7054090299508273E-3</v>
       </c>
       <c r="F140">
         <v>7</v>
       </c>
       <c r="G140" s="7">
-        <f t="shared" si="22"/>
+        <f>F140/(SUM($F$7:$F$184))</f>
         <v>7.3839662447257384E-3</v>
       </c>
       <c r="H140">
         <v>7</v>
       </c>
       <c r="I140" s="7">
-        <f t="shared" si="23"/>
+        <f>H140/(SUM($H$7:$H$184))</f>
         <v>8.9743589743589737E-3</v>
       </c>
       <c r="J140" s="5">
-        <f t="shared" si="24"/>
+        <f>E140/(G140+I140)</f>
         <v>0.40990804010473214</v>
       </c>
     </row>
@@ -6303,29 +6303,29 @@
         <v>7</v>
       </c>
       <c r="D141" s="6">
-        <f t="shared" si="20"/>
+        <f>(B141+C141)/2</f>
         <v>7</v>
       </c>
       <c r="E141" s="7">
-        <f t="shared" si="21"/>
+        <f>D141/(SUM($D$7:$D$184))</f>
         <v>6.2583817612874388E-3</v>
       </c>
       <c r="F141">
         <v>6</v>
       </c>
       <c r="G141" s="7">
-        <f t="shared" si="22"/>
+        <f>F141/(SUM($F$7:$F$184))</f>
         <v>6.3291139240506328E-3</v>
       </c>
       <c r="H141">
         <v>7</v>
       </c>
       <c r="I141" s="7">
-        <f t="shared" si="23"/>
+        <f>H141/(SUM($H$7:$H$184))</f>
         <v>8.9743589743589737E-3</v>
       </c>
       <c r="J141" s="5">
-        <f t="shared" si="24"/>
+        <f>E141/(G141+I141)</f>
         <v>0.40895173290618453</v>
       </c>
     </row>
@@ -6340,29 +6340,29 @@
         <v>8</v>
       </c>
       <c r="D142" s="6">
-        <f t="shared" si="20"/>
+        <f>(B142+C142)/2</f>
         <v>8</v>
       </c>
       <c r="E142" s="7">
-        <f t="shared" si="21"/>
+        <f>D142/(SUM($D$7:$D$184))</f>
         <v>7.1524362986142157E-3</v>
       </c>
       <c r="F142">
         <v>7</v>
       </c>
       <c r="G142" s="7">
-        <f t="shared" si="22"/>
+        <f>F142/(SUM($F$7:$F$184))</f>
         <v>7.3839662447257384E-3</v>
       </c>
       <c r="H142">
         <v>8</v>
       </c>
       <c r="I142" s="7">
-        <f t="shared" si="23"/>
+        <f>H142/(SUM($H$7:$H$184))</f>
         <v>1.0256410256410256E-2</v>
       </c>
       <c r="J142" s="5">
-        <f t="shared" si="24"/>
+        <f>E142/(G142+I142)</f>
         <v>0.40545825641270289</v>
       </c>
     </row>
@@ -6377,29 +6377,29 @@
         <v>8</v>
       </c>
       <c r="D143" s="6">
-        <f t="shared" si="20"/>
+        <f>(B143+C143)/2</f>
         <v>7.5</v>
       </c>
       <c r="E143" s="7">
-        <f t="shared" si="21"/>
+        <f>D143/(SUM($D$7:$D$184))</f>
         <v>6.7054090299508273E-3</v>
       </c>
       <c r="F143">
         <v>6</v>
       </c>
       <c r="G143" s="7">
-        <f t="shared" si="22"/>
+        <f>F143/(SUM($F$7:$F$184))</f>
         <v>6.3291139240506328E-3</v>
       </c>
       <c r="H143">
         <v>8</v>
       </c>
       <c r="I143" s="7">
-        <f t="shared" si="23"/>
+        <f>H143/(SUM($H$7:$H$184))</f>
         <v>1.0256410256410256E-2</v>
       </c>
       <c r="J143" s="5">
-        <f t="shared" si="24"/>
+        <f>E143/(G143+I143)</f>
         <v>0.4042928614731604</v>
       </c>
     </row>
@@ -6414,29 +6414,29 @@
         <v>5</v>
       </c>
       <c r="D144" s="6">
-        <f t="shared" si="20"/>
+        <f>(B144+C144)/2</f>
         <v>5</v>
       </c>
       <c r="E144" s="7">
-        <f t="shared" si="21"/>
+        <f>D144/(SUM($D$7:$D$184))</f>
         <v>4.4702726866338843E-3</v>
       </c>
       <c r="F144">
         <v>7</v>
       </c>
       <c r="G144" s="7">
-        <f t="shared" si="22"/>
+        <f>F144/(SUM($F$7:$F$184))</f>
         <v>7.3839662447257384E-3</v>
       </c>
       <c r="H144">
         <v>3</v>
       </c>
       <c r="I144" s="7">
-        <f t="shared" si="23"/>
+        <f>H144/(SUM($H$7:$H$184))</f>
         <v>3.8461538461538464E-3</v>
       </c>
       <c r="J144" s="5">
-        <f t="shared" si="24"/>
+        <f>E144/(G144+I144)</f>
         <v>0.39806098692251435</v>
       </c>
     </row>
@@ -6451,29 +6451,29 @@
         <v>3</v>
       </c>
       <c r="D145" s="6">
-        <f t="shared" si="20"/>
+        <f>(B145+C145)/2</f>
         <v>3</v>
       </c>
       <c r="E145" s="7">
-        <f t="shared" si="21"/>
+        <f>D145/(SUM($D$7:$D$184))</f>
         <v>2.682163611980331E-3</v>
       </c>
       <c r="F145">
         <v>4</v>
       </c>
       <c r="G145" s="7">
-        <f t="shared" si="22"/>
+        <f>F145/(SUM($F$7:$F$184))</f>
         <v>4.2194092827004216E-3</v>
       </c>
       <c r="H145">
         <v>2</v>
       </c>
       <c r="I145" s="7">
-        <f t="shared" si="23"/>
+        <f>H145/(SUM($H$7:$H$184))</f>
         <v>2.5641025641025641E-3</v>
       </c>
       <c r="J145" s="5">
-        <f t="shared" si="24"/>
+        <f>E145/(G145+I145)</f>
         <v>0.39539454968954063</v>
       </c>
     </row>
@@ -6488,29 +6488,29 @@
         <v>6</v>
       </c>
       <c r="D146" s="6">
-        <f t="shared" si="20"/>
+        <f>(B146+C146)/2</f>
         <v>6</v>
       </c>
       <c r="E146" s="7">
-        <f t="shared" si="21"/>
+        <f>D146/(SUM($D$7:$D$184))</f>
         <v>5.364327223960662E-3</v>
       </c>
       <c r="F146">
         <v>8</v>
       </c>
       <c r="G146" s="7">
-        <f t="shared" si="22"/>
+        <f>F146/(SUM($F$7:$F$184))</f>
         <v>8.4388185654008432E-3</v>
       </c>
       <c r="H146">
         <v>4</v>
       </c>
       <c r="I146" s="7">
-        <f t="shared" si="23"/>
+        <f>H146/(SUM($H$7:$H$184))</f>
         <v>5.1282051282051282E-3</v>
       </c>
       <c r="J146" s="5">
-        <f t="shared" si="24"/>
+        <f>E146/(G146+I146)</f>
         <v>0.39539454968954063</v>
       </c>
     </row>
@@ -6525,29 +6525,29 @@
         <v>5</v>
       </c>
       <c r="D147" s="6">
-        <f t="shared" si="20"/>
+        <f>(B147+C147)/2</f>
         <v>5</v>
       </c>
       <c r="E147" s="7">
-        <f t="shared" si="21"/>
+        <f>D147/(SUM($D$7:$D$184))</f>
         <v>4.4702726866338843E-3</v>
       </c>
       <c r="F147">
         <v>6</v>
       </c>
       <c r="G147" s="7">
-        <f t="shared" si="22"/>
+        <f>F147/(SUM($F$7:$F$184))</f>
         <v>6.3291139240506328E-3</v>
       </c>
       <c r="H147">
         <v>4</v>
       </c>
       <c r="I147" s="7">
-        <f t="shared" si="23"/>
+        <f>H147/(SUM($H$7:$H$184))</f>
         <v>5.1282051282051282E-3</v>
       </c>
       <c r="J147" s="5">
-        <f t="shared" si="24"/>
+        <f>E147/(G147+I147)</f>
         <v>0.39016742627532569</v>
       </c>
     </row>
@@ -6562,29 +6562,29 @@
         <v>5</v>
       </c>
       <c r="D148" s="6">
-        <f t="shared" si="20"/>
+        <f>(B148+C148)/2</f>
         <v>5</v>
       </c>
       <c r="E148" s="7">
-        <f t="shared" si="21"/>
+        <f>D148/(SUM($D$7:$D$184))</f>
         <v>4.4702726866338843E-3</v>
       </c>
       <c r="F148">
         <v>6</v>
       </c>
       <c r="G148" s="7">
-        <f t="shared" si="22"/>
+        <f>F148/(SUM($F$7:$F$184))</f>
         <v>6.3291139240506328E-3</v>
       </c>
       <c r="H148">
         <v>4</v>
       </c>
       <c r="I148" s="7">
-        <f t="shared" si="23"/>
+        <f>H148/(SUM($H$7:$H$184))</f>
         <v>5.1282051282051282E-3</v>
       </c>
       <c r="J148" s="5">
-        <f t="shared" si="24"/>
+        <f>E148/(G148+I148)</f>
         <v>0.39016742627532569</v>
       </c>
     </row>
@@ -6599,29 +6599,29 @@
         <v>7</v>
       </c>
       <c r="D149" s="6">
-        <f t="shared" si="20"/>
+        <f>(B149+C149)/2</f>
         <v>7</v>
       </c>
       <c r="E149" s="7">
-        <f t="shared" si="21"/>
+        <f>D149/(SUM($D$7:$D$184))</f>
         <v>6.2583817612874388E-3</v>
       </c>
       <c r="F149">
         <v>8</v>
       </c>
       <c r="G149" s="7">
-        <f t="shared" si="22"/>
+        <f>F149/(SUM($F$7:$F$184))</f>
         <v>8.4388185654008432E-3</v>
       </c>
       <c r="H149">
         <v>6</v>
       </c>
       <c r="I149" s="7">
-        <f t="shared" si="23"/>
+        <f>H149/(SUM($H$7:$H$184))</f>
         <v>7.6923076923076927E-3</v>
       </c>
       <c r="J149" s="5">
-        <f t="shared" si="24"/>
+        <f>E149/(G149+I149)</f>
         <v>0.38796929993011264</v>
       </c>
     </row>
@@ -6636,29 +6636,29 @@
         <v>5</v>
       </c>
       <c r="D150" s="6">
-        <f t="shared" si="20"/>
+        <f>(B150+C150)/2</f>
         <v>4.5</v>
       </c>
       <c r="E150" s="7">
-        <f t="shared" si="21"/>
+        <f>D150/(SUM($D$7:$D$184))</f>
         <v>4.0232454179704958E-3</v>
       </c>
       <c r="F150">
         <v>5</v>
       </c>
       <c r="G150" s="7">
-        <f t="shared" si="22"/>
+        <f>F150/(SUM($F$7:$F$184))</f>
         <v>5.2742616033755272E-3</v>
       </c>
       <c r="H150">
         <v>4</v>
       </c>
       <c r="I150" s="7">
-        <f t="shared" si="23"/>
+        <f>H150/(SUM($H$7:$H$184))</f>
         <v>5.1282051282051282E-3</v>
       </c>
       <c r="J150" s="5">
-        <f t="shared" si="24"/>
+        <f>E150/(G150+I150)</f>
         <v>0.38675878729382518</v>
       </c>
     </row>
@@ -6673,29 +6673,29 @@
         <v>6</v>
       </c>
       <c r="D151" s="6">
-        <f t="shared" si="20"/>
+        <f>(B151+C151)/2</f>
         <v>6</v>
       </c>
       <c r="E151" s="7">
-        <f t="shared" si="21"/>
+        <f>D151/(SUM($D$7:$D$184))</f>
         <v>5.364327223960662E-3</v>
       </c>
       <c r="F151">
         <v>6</v>
       </c>
       <c r="G151" s="7">
-        <f t="shared" si="22"/>
+        <f>F151/(SUM($F$7:$F$184))</f>
         <v>6.3291139240506328E-3</v>
       </c>
       <c r="H151">
         <v>6</v>
       </c>
       <c r="I151" s="7">
-        <f t="shared" si="23"/>
+        <f>H151/(SUM($H$7:$H$184))</f>
         <v>7.6923076923076927E-3</v>
       </c>
       <c r="J151" s="5">
-        <f t="shared" si="24"/>
+        <f>E151/(G151+I151)</f>
         <v>0.38258083743108334</v>
       </c>
     </row>
@@ -6710,29 +6710,29 @@
         <v>6</v>
       </c>
       <c r="D152" s="6">
-        <f t="shared" si="20"/>
+        <f>(B152+C152)/2</f>
         <v>6</v>
       </c>
       <c r="E152" s="7">
-        <f t="shared" si="21"/>
+        <f>D152/(SUM($D$7:$D$184))</f>
         <v>5.364327223960662E-3</v>
       </c>
       <c r="F152">
         <v>6</v>
       </c>
       <c r="G152" s="7">
-        <f t="shared" si="22"/>
+        <f>F152/(SUM($F$7:$F$184))</f>
         <v>6.3291139240506328E-3</v>
       </c>
       <c r="H152">
         <v>6</v>
       </c>
       <c r="I152" s="7">
-        <f t="shared" si="23"/>
+        <f>H152/(SUM($H$7:$H$184))</f>
         <v>7.6923076923076927E-3</v>
       </c>
       <c r="J152" s="5">
-        <f t="shared" si="24"/>
+        <f>E152/(G152+I152)</f>
         <v>0.38258083743108334</v>
       </c>
     </row>
@@ -6747,29 +6747,29 @@
         <v>6</v>
       </c>
       <c r="D153" s="6">
-        <f t="shared" si="20"/>
+        <f>(B153+C153)/2</f>
         <v>5.5</v>
       </c>
       <c r="E153" s="7">
-        <f t="shared" si="21"/>
+        <f>D153/(SUM($D$7:$D$184))</f>
         <v>4.9172999552972736E-3</v>
       </c>
       <c r="F153">
         <v>5</v>
       </c>
       <c r="G153" s="7">
-        <f t="shared" si="22"/>
+        <f>F153/(SUM($F$7:$F$184))</f>
         <v>5.2742616033755272E-3</v>
       </c>
       <c r="H153">
         <v>6</v>
       </c>
       <c r="I153" s="7">
-        <f t="shared" si="23"/>
+        <f>H153/(SUM($H$7:$H$184))</f>
         <v>7.6923076923076927E-3</v>
       </c>
       <c r="J153" s="5">
-        <f t="shared" si="24"/>
+        <f>E153/(G153+I153)</f>
         <v>0.37922906538850815</v>
       </c>
     </row>
@@ -6784,29 +6784,29 @@
         <v>6</v>
       </c>
       <c r="D154" s="6">
-        <f t="shared" si="20"/>
+        <f>(B154+C154)/2</f>
         <v>5.5</v>
       </c>
       <c r="E154" s="7">
-        <f t="shared" si="21"/>
+        <f>D154/(SUM($D$7:$D$184))</f>
         <v>4.9172999552972736E-3</v>
       </c>
       <c r="F154">
         <v>5</v>
       </c>
       <c r="G154" s="7">
-        <f t="shared" si="22"/>
+        <f>F154/(SUM($F$7:$F$184))</f>
         <v>5.2742616033755272E-3</v>
       </c>
       <c r="H154">
         <v>6</v>
       </c>
       <c r="I154" s="7">
-        <f t="shared" si="23"/>
+        <f>H154/(SUM($H$7:$H$184))</f>
         <v>7.6923076923076927E-3</v>
       </c>
       <c r="J154" s="5">
-        <f t="shared" si="24"/>
+        <f>E154/(G154+I154)</f>
         <v>0.37922906538850815</v>
       </c>
     </row>
@@ -6821,29 +6821,29 @@
         <v>4</v>
       </c>
       <c r="D155" s="6">
-        <f t="shared" si="20"/>
+        <f>(B155+C155)/2</f>
         <v>4.5</v>
       </c>
       <c r="E155" s="7">
-        <f t="shared" si="21"/>
+        <f>D155/(SUM($D$7:$D$184))</f>
         <v>4.0232454179704958E-3</v>
       </c>
       <c r="F155">
         <v>4</v>
       </c>
       <c r="G155" s="7">
-        <f t="shared" si="22"/>
+        <f>F155/(SUM($F$7:$F$184))</f>
         <v>4.2194092827004216E-3</v>
       </c>
       <c r="H155">
         <v>5</v>
       </c>
       <c r="I155" s="7">
-        <f t="shared" si="23"/>
+        <f>H155/(SUM($H$7:$H$184))</f>
         <v>6.41025641025641E-3</v>
       </c>
       <c r="J155" s="5">
-        <f t="shared" si="24"/>
+        <f>E155/(G155+I155)</f>
         <v>0.37849218726006412</v>
       </c>
     </row>
@@ -6858,29 +6858,29 @@
         <v>4</v>
       </c>
       <c r="D156" s="6">
-        <f t="shared" si="20"/>
+        <f>(B156+C156)/2</f>
         <v>4.5</v>
       </c>
       <c r="E156" s="7">
-        <f t="shared" si="21"/>
+        <f>D156/(SUM($D$7:$D$184))</f>
         <v>4.0232454179704958E-3</v>
       </c>
       <c r="F156">
         <v>4</v>
       </c>
       <c r="G156" s="7">
-        <f t="shared" si="22"/>
+        <f>F156/(SUM($F$7:$F$184))</f>
         <v>4.2194092827004216E-3</v>
       </c>
       <c r="H156">
         <v>5</v>
       </c>
       <c r="I156" s="7">
-        <f t="shared" si="23"/>
+        <f>H156/(SUM($H$7:$H$184))</f>
         <v>6.41025641025641E-3</v>
       </c>
       <c r="J156" s="5">
-        <f t="shared" si="24"/>
+        <f>E156/(G156+I156)</f>
         <v>0.37849218726006412</v>
       </c>
     </row>
@@ -6895,29 +6895,29 @@
         <v>7</v>
       </c>
       <c r="D157" s="6">
-        <f t="shared" si="20"/>
+        <f>(B157+C157)/2</f>
         <v>7</v>
       </c>
       <c r="E157" s="7">
-        <f t="shared" si="21"/>
+        <f>D157/(SUM($D$7:$D$184))</f>
         <v>6.2583817612874388E-3</v>
       </c>
       <c r="F157">
         <v>6</v>
       </c>
       <c r="G157" s="7">
-        <f t="shared" si="22"/>
+        <f>F157/(SUM($F$7:$F$184))</f>
         <v>6.3291139240506328E-3</v>
       </c>
       <c r="H157">
         <v>8</v>
       </c>
       <c r="I157" s="7">
-        <f t="shared" si="23"/>
+        <f>H157/(SUM($H$7:$H$184))</f>
         <v>1.0256410256410256E-2</v>
       </c>
       <c r="J157" s="5">
-        <f t="shared" si="24"/>
+        <f>E157/(G157+I157)</f>
         <v>0.37734000404161638</v>
       </c>
     </row>
@@ -6932,29 +6932,29 @@
         <v>6</v>
       </c>
       <c r="D158" s="6">
-        <f t="shared" si="20"/>
+        <f>(B158+C158)/2</f>
         <v>6</v>
       </c>
       <c r="E158" s="7">
-        <f t="shared" si="21"/>
+        <f>D158/(SUM($D$7:$D$184))</f>
         <v>5.364327223960662E-3</v>
       </c>
       <c r="F158">
         <v>5</v>
       </c>
       <c r="G158" s="7">
-        <f t="shared" si="22"/>
+        <f>F158/(SUM($F$7:$F$184))</f>
         <v>5.2742616033755272E-3</v>
       </c>
       <c r="H158">
         <v>7</v>
       </c>
       <c r="I158" s="7">
-        <f t="shared" si="23"/>
+        <f>H158/(SUM($H$7:$H$184))</f>
         <v>8.9743589743589737E-3</v>
       </c>
       <c r="J158" s="5">
-        <f t="shared" si="24"/>
+        <f>E158/(G158+I158)</f>
         <v>0.37648045961327564</v>
       </c>
     </row>
@@ -6969,29 +6969,29 @@
         <v>4</v>
       </c>
       <c r="D159" s="6">
-        <f t="shared" si="20"/>
+        <f>(B159+C159)/2</f>
         <v>4</v>
       </c>
       <c r="E159" s="7">
-        <f t="shared" si="21"/>
+        <f>D159/(SUM($D$7:$D$184))</f>
         <v>3.5762181493071078E-3</v>
       </c>
       <c r="F159">
         <v>6</v>
       </c>
       <c r="G159" s="7">
-        <f t="shared" si="22"/>
+        <f>F159/(SUM($F$7:$F$184))</f>
         <v>6.3291139240506328E-3</v>
       </c>
       <c r="H159">
         <v>3</v>
       </c>
       <c r="I159" s="7">
-        <f t="shared" si="23"/>
+        <f>H159/(SUM($H$7:$H$184))</f>
         <v>3.8461538461538464E-3</v>
       </c>
       <c r="J159" s="5">
-        <f t="shared" si="24"/>
+        <f>E159/(G159+I159)</f>
         <v>0.35146182194625836</v>
       </c>
     </row>
@@ -7006,29 +7006,29 @@
         <v>5</v>
       </c>
       <c r="D160" s="6">
-        <f t="shared" si="20"/>
+        <f>(B160+C160)/2</f>
         <v>5</v>
       </c>
       <c r="E160" s="7">
-        <f t="shared" si="21"/>
+        <f>D160/(SUM($D$7:$D$184))</f>
         <v>4.4702726866338843E-3</v>
       </c>
       <c r="F160">
         <v>5</v>
       </c>
       <c r="G160" s="7">
-        <f t="shared" si="22"/>
+        <f>F160/(SUM($F$7:$F$184))</f>
         <v>5.2742616033755272E-3</v>
       </c>
       <c r="H160">
         <v>6</v>
       </c>
       <c r="I160" s="7">
-        <f t="shared" si="23"/>
+        <f>H160/(SUM($H$7:$H$184))</f>
         <v>7.6923076923076927E-3</v>
       </c>
       <c r="J160" s="5">
-        <f t="shared" si="24"/>
+        <f>E160/(G160+I160)</f>
         <v>0.34475369580773457</v>
       </c>
     </row>
@@ -7043,29 +7043,29 @@
         <v>4</v>
       </c>
       <c r="D161" s="6">
-        <f t="shared" si="20"/>
+        <f>(B161+C161)/2</f>
         <v>4</v>
       </c>
       <c r="E161" s="7">
-        <f t="shared" si="21"/>
+        <f>D161/(SUM($D$7:$D$184))</f>
         <v>3.5762181493071078E-3</v>
       </c>
       <c r="F161">
         <v>5</v>
       </c>
       <c r="G161" s="7">
-        <f t="shared" si="22"/>
+        <f>F161/(SUM($F$7:$F$184))</f>
         <v>5.2742616033755272E-3</v>
       </c>
       <c r="H161">
         <v>4</v>
       </c>
       <c r="I161" s="7">
-        <f t="shared" si="23"/>
+        <f>H161/(SUM($H$7:$H$184))</f>
         <v>5.1282051282051282E-3</v>
       </c>
       <c r="J161" s="5">
-        <f t="shared" si="24"/>
+        <f>E161/(G161+I161)</f>
         <v>0.34378558870562242</v>
       </c>
     </row>
@@ -7080,29 +7080,29 @@
         <v>3</v>
       </c>
       <c r="D162" s="6">
-        <f t="shared" si="20"/>
+        <f>(B162+C162)/2</f>
         <v>3</v>
       </c>
       <c r="E162" s="7">
-        <f t="shared" si="21"/>
+        <f>D162/(SUM($D$7:$D$184))</f>
         <v>2.682163611980331E-3</v>
       </c>
       <c r="F162">
         <v>5</v>
       </c>
       <c r="G162" s="7">
-        <f t="shared" si="22"/>
+        <f>F162/(SUM($F$7:$F$184))</f>
         <v>5.2742616033755272E-3</v>
       </c>
       <c r="H162">
         <v>2</v>
       </c>
       <c r="I162" s="7">
-        <f t="shared" si="23"/>
+        <f>H162/(SUM($H$7:$H$184))</f>
         <v>2.5641025641025641E-3</v>
       </c>
       <c r="J162" s="5">
-        <f t="shared" si="24"/>
+        <f>E162/(G162+I162)</f>
         <v>0.34218410304395031</v>
       </c>
     </row>
@@ -7117,29 +7117,29 @@
         <v>8</v>
       </c>
       <c r="D163" s="6">
-        <f t="shared" si="20"/>
+        <f>(B163+C163)/2</f>
         <v>7.5</v>
       </c>
       <c r="E163" s="7">
-        <f t="shared" si="21"/>
+        <f>D163/(SUM($D$7:$D$184))</f>
         <v>6.7054090299508273E-3</v>
       </c>
       <c r="F163">
         <v>9</v>
       </c>
       <c r="G163" s="7">
-        <f t="shared" si="22"/>
+        <f>F163/(SUM($F$7:$F$184))</f>
         <v>9.4936708860759497E-3</v>
       </c>
       <c r="H163">
         <v>8</v>
       </c>
       <c r="I163" s="7">
-        <f t="shared" si="23"/>
+        <f>H163/(SUM($H$7:$H$184))</f>
         <v>1.0256410256410256E-2</v>
       </c>
       <c r="J163" s="5">
-        <f t="shared" si="24"/>
+        <f>E163/(G163+I163)</f>
         <v>0.33951298638091204</v>
       </c>
     </row>
@@ -7154,29 +7154,29 @@
         <v>7</v>
       </c>
       <c r="D164" s="6">
-        <f t="shared" si="20"/>
+        <f>(B164+C164)/2</f>
         <v>7</v>
       </c>
       <c r="E164" s="7">
-        <f t="shared" si="21"/>
+        <f>D164/(SUM($D$7:$D$184))</f>
         <v>6.2583817612874388E-3</v>
       </c>
       <c r="F164">
         <v>9</v>
       </c>
       <c r="G164" s="7">
-        <f t="shared" si="22"/>
+        <f>F164/(SUM($F$7:$F$184))</f>
         <v>9.4936708860759497E-3</v>
       </c>
       <c r="H164">
         <v>7</v>
       </c>
       <c r="I164" s="7">
-        <f t="shared" si="23"/>
+        <f>H164/(SUM($H$7:$H$184))</f>
         <v>8.9743589743589737E-3</v>
       </c>
       <c r="J164" s="5">
-        <f t="shared" si="24"/>
+        <f>E164/(G164+I164)</f>
         <v>0.33887652384053779</v>
       </c>
     </row>
@@ -7191,29 +7191,29 @@
         <v>7</v>
       </c>
       <c r="D165" s="6">
-        <f t="shared" si="20"/>
+        <f>(B165+C165)/2</f>
         <v>6.5</v>
       </c>
       <c r="E165" s="7">
-        <f t="shared" si="21"/>
+        <f>D165/(SUM($D$7:$D$184))</f>
         <v>5.8113544926240504E-3</v>
       </c>
       <c r="F165">
         <v>8</v>
       </c>
       <c r="G165" s="7">
-        <f t="shared" si="22"/>
+        <f>F165/(SUM($F$7:$F$184))</f>
         <v>8.4388185654008432E-3</v>
       </c>
       <c r="H165">
         <v>7</v>
       </c>
       <c r="I165" s="7">
-        <f t="shared" si="23"/>
+        <f>H165/(SUM($H$7:$H$184))</f>
         <v>8.9743589743589737E-3</v>
       </c>
       <c r="J165" s="5">
-        <f t="shared" si="24"/>
+        <f>E165/(G165+I165)</f>
         <v>0.3337331443014856</v>
       </c>
     </row>
@@ -7228,29 +7228,29 @@
         <v>3</v>
       </c>
       <c r="D166" s="6">
-        <f t="shared" si="20"/>
+        <f>(B166+C166)/2</f>
         <v>3</v>
       </c>
       <c r="E166" s="7">
-        <f t="shared" si="21"/>
+        <f>D166/(SUM($D$7:$D$184))</f>
         <v>2.682163611980331E-3</v>
       </c>
       <c r="F166">
         <v>4</v>
       </c>
       <c r="G166" s="7">
-        <f t="shared" si="22"/>
+        <f>F166/(SUM($F$7:$F$184))</f>
         <v>4.2194092827004216E-3</v>
       </c>
       <c r="H166">
         <v>3</v>
       </c>
       <c r="I166" s="7">
-        <f t="shared" si="23"/>
+        <f>H166/(SUM($H$7:$H$184))</f>
         <v>3.8461538461538464E-3</v>
       </c>
       <c r="J166" s="5">
-        <f t="shared" si="24"/>
+        <f>E166/(G166+I166)</f>
         <v>0.33254511422581085</v>
       </c>
     </row>
@@ -7265,29 +7265,29 @@
         <v>6</v>
       </c>
       <c r="D167" s="6">
-        <f t="shared" ref="D167:D198" si="25">(B167+C167)/2</f>
+        <f>(B167+C167)/2</f>
         <v>5.5</v>
       </c>
       <c r="E167" s="7">
-        <f t="shared" ref="E167:E198" si="26">D167/(SUM($D$7:$D$184))</f>
+        <f>D167/(SUM($D$7:$D$184))</f>
         <v>4.9172999552972736E-3</v>
       </c>
       <c r="F167">
         <v>7</v>
       </c>
       <c r="G167" s="7">
-        <f t="shared" ref="G167:G198" si="27">F167/(SUM($F$7:$F$184))</f>
+        <f>F167/(SUM($F$7:$F$184))</f>
         <v>7.3839662447257384E-3</v>
       </c>
       <c r="H167">
         <v>6</v>
       </c>
       <c r="I167" s="7">
-        <f t="shared" ref="I167:I198" si="28">H167/(SUM($H$7:$H$184))</f>
+        <f>H167/(SUM($H$7:$H$184))</f>
         <v>7.6923076923076927E-3</v>
       </c>
       <c r="J167" s="5">
-        <f t="shared" ref="J167:J198" si="29">E167/(G167+I167)</f>
+        <f>E167/(G167+I167)</f>
         <v>0.32616148896169861</v>
       </c>
     </row>
@@ -7302,29 +7302,29 @@
         <v>6</v>
       </c>
       <c r="D168" s="6">
-        <f t="shared" si="25"/>
+        <f>(B168+C168)/2</f>
         <v>6</v>
       </c>
       <c r="E168" s="7">
-        <f t="shared" si="26"/>
+        <f>D168/(SUM($D$7:$D$184))</f>
         <v>5.364327223960662E-3</v>
       </c>
       <c r="F168">
         <v>9</v>
       </c>
       <c r="G168" s="7">
-        <f t="shared" si="27"/>
+        <f>F168/(SUM($F$7:$F$184))</f>
         <v>9.4936708860759497E-3</v>
       </c>
       <c r="H168">
         <v>6</v>
       </c>
       <c r="I168" s="7">
-        <f t="shared" si="28"/>
+        <f>H168/(SUM($H$7:$H$184))</f>
         <v>7.6923076923076927E-3</v>
       </c>
       <c r="J168" s="5">
-        <f t="shared" si="29"/>
+        <f>E168/(G168+I168)</f>
         <v>0.3121339410202606</v>
       </c>
     </row>
@@ -7339,29 +7339,29 @@
         <v>6</v>
       </c>
       <c r="D169" s="6">
-        <f t="shared" si="25"/>
+        <f>(B169+C169)/2</f>
         <v>6</v>
       </c>
       <c r="E169" s="7">
-        <f t="shared" si="26"/>
+        <f>D169/(SUM($D$7:$D$184))</f>
         <v>5.364327223960662E-3</v>
       </c>
       <c r="F169">
         <v>8</v>
       </c>
       <c r="G169" s="7">
-        <f t="shared" si="27"/>
+        <f>F169/(SUM($F$7:$F$184))</f>
         <v>8.4388185654008432E-3</v>
       </c>
       <c r="H169">
         <v>7</v>
       </c>
       <c r="I169" s="7">
-        <f t="shared" si="28"/>
+        <f>H169/(SUM($H$7:$H$184))</f>
         <v>8.9743589743589737E-3</v>
       </c>
       <c r="J169" s="5">
-        <f t="shared" si="29"/>
+        <f>E169/(G169+I169)</f>
         <v>0.30806136397060208</v>
       </c>
     </row>
@@ -7376,29 +7376,29 @@
         <v>6</v>
       </c>
       <c r="D170" s="6">
-        <f t="shared" si="25"/>
+        <f>(B170+C170)/2</f>
         <v>6</v>
       </c>
       <c r="E170" s="7">
-        <f t="shared" si="26"/>
+        <f>D170/(SUM($D$7:$D$184))</f>
         <v>5.364327223960662E-3</v>
       </c>
       <c r="F170">
         <v>7</v>
       </c>
       <c r="G170" s="7">
-        <f t="shared" si="27"/>
+        <f>F170/(SUM($F$7:$F$184))</f>
         <v>7.3839662447257384E-3</v>
       </c>
       <c r="H170">
         <v>8</v>
       </c>
       <c r="I170" s="7">
-        <f t="shared" si="28"/>
+        <f>H170/(SUM($H$7:$H$184))</f>
         <v>1.0256410256410256E-2</v>
       </c>
       <c r="J170" s="5">
-        <f t="shared" si="29"/>
+        <f>E170/(G170+I170)</f>
         <v>0.30409369230952715</v>
       </c>
     </row>
@@ -7413,29 +7413,29 @@
         <v>3</v>
       </c>
       <c r="D171" s="6">
-        <f t="shared" si="25"/>
+        <f>(B171+C171)/2</f>
         <v>3</v>
       </c>
       <c r="E171" s="7">
-        <f t="shared" si="26"/>
+        <f>D171/(SUM($D$7:$D$184))</f>
         <v>2.682163611980331E-3</v>
       </c>
       <c r="F171">
         <v>5</v>
       </c>
       <c r="G171" s="7">
-        <f t="shared" si="27"/>
+        <f>F171/(SUM($F$7:$F$184))</f>
         <v>5.2742616033755272E-3</v>
       </c>
       <c r="H171">
         <v>3</v>
       </c>
       <c r="I171" s="7">
-        <f t="shared" si="28"/>
+        <f>H171/(SUM($H$7:$H$184))</f>
         <v>3.8461538461538464E-3</v>
       </c>
       <c r="J171" s="5">
-        <f t="shared" si="29"/>
+        <f>E171/(G171+I171)</f>
         <v>0.29408349069435585</v>
       </c>
     </row>
@@ -7450,29 +7450,29 @@
         <v>8</v>
       </c>
       <c r="D172" s="6">
-        <f t="shared" si="25"/>
+        <f>(B172+C172)/2</f>
         <v>6.5</v>
       </c>
       <c r="E172" s="7">
-        <f t="shared" si="26"/>
+        <f>D172/(SUM($D$7:$D$184))</f>
         <v>5.8113544926240504E-3</v>
       </c>
       <c r="F172">
         <v>8</v>
       </c>
       <c r="G172" s="7">
-        <f t="shared" si="27"/>
+        <f>F172/(SUM($F$7:$F$184))</f>
         <v>8.4388185654008432E-3</v>
       </c>
       <c r="H172">
         <v>9</v>
       </c>
       <c r="I172" s="7">
-        <f t="shared" si="28"/>
+        <f>H172/(SUM($H$7:$H$184))</f>
         <v>1.1538461538461539E-2</v>
       </c>
       <c r="J172" s="5">
-        <f t="shared" si="29"/>
+        <f>E172/(G172+I172)</f>
         <v>0.29089818345694068</v>
       </c>
     </row>
@@ -7487,29 +7487,29 @@
         <v>4</v>
       </c>
       <c r="D173" s="6">
-        <f t="shared" si="25"/>
+        <f>(B173+C173)/2</f>
         <v>4.5</v>
       </c>
       <c r="E173" s="7">
-        <f t="shared" si="26"/>
+        <f>D173/(SUM($D$7:$D$184))</f>
         <v>4.0232454179704958E-3</v>
       </c>
       <c r="F173">
         <v>6</v>
       </c>
       <c r="G173" s="7">
-        <f t="shared" si="27"/>
+        <f>F173/(SUM($F$7:$F$184))</f>
         <v>6.3291139240506328E-3</v>
       </c>
       <c r="H173">
         <v>6</v>
       </c>
       <c r="I173" s="7">
-        <f t="shared" si="28"/>
+        <f>H173/(SUM($H$7:$H$184))</f>
         <v>7.6923076923076927E-3</v>
       </c>
       <c r="J173" s="5">
-        <f t="shared" si="29"/>
+        <f>E173/(G173+I173)</f>
         <v>0.28693562807331247</v>
       </c>
     </row>
@@ -7524,29 +7524,29 @@
         <v>3</v>
       </c>
       <c r="D174" s="6">
-        <f t="shared" si="25"/>
+        <f>(B174+C174)/2</f>
         <v>3.5</v>
       </c>
       <c r="E174" s="7">
-        <f t="shared" si="26"/>
+        <f>D174/(SUM($D$7:$D$184))</f>
         <v>3.1291908806437194E-3</v>
       </c>
       <c r="F174">
         <v>6</v>
       </c>
       <c r="G174" s="7">
-        <f t="shared" si="27"/>
+        <f>F174/(SUM($F$7:$F$184))</f>
         <v>6.3291139240506328E-3</v>
       </c>
       <c r="H174">
         <v>4</v>
       </c>
       <c r="I174" s="7">
-        <f t="shared" si="28"/>
+        <f>H174/(SUM($H$7:$H$184))</f>
         <v>5.1282051282051282E-3</v>
       </c>
       <c r="J174" s="5">
-        <f t="shared" si="29"/>
+        <f>E174/(G174+I174)</f>
         <v>0.27311719839272802</v>
       </c>
     </row>
@@ -7561,29 +7561,29 @@
         <v>3</v>
       </c>
       <c r="D175" s="6">
-        <f t="shared" si="25"/>
+        <f>(B175+C175)/2</f>
         <v>3</v>
       </c>
       <c r="E175" s="7">
-        <f t="shared" si="26"/>
+        <f>D175/(SUM($D$7:$D$184))</f>
         <v>2.682163611980331E-3</v>
       </c>
       <c r="F175">
         <v>6</v>
       </c>
       <c r="G175" s="7">
-        <f t="shared" si="27"/>
+        <f>F175/(SUM($F$7:$F$184))</f>
         <v>6.3291139240506328E-3</v>
       </c>
       <c r="H175">
         <v>3</v>
       </c>
       <c r="I175" s="7">
-        <f t="shared" si="28"/>
+        <f>H175/(SUM($H$7:$H$184))</f>
         <v>3.8461538461538464E-3</v>
       </c>
       <c r="J175" s="5">
-        <f t="shared" si="29"/>
+        <f>E175/(G175+I175)</f>
         <v>0.26359636645969381</v>
       </c>
     </row>
@@ -7598,29 +7598,29 @@
         <v>3</v>
       </c>
       <c r="D176" s="6">
-        <f t="shared" si="25"/>
+        <f>(B176+C176)/2</f>
         <v>3</v>
       </c>
       <c r="E176" s="7">
-        <f t="shared" si="26"/>
+        <f>D176/(SUM($D$7:$D$184))</f>
         <v>2.682163611980331E-3</v>
       </c>
       <c r="F176">
         <v>6</v>
       </c>
       <c r="G176" s="7">
-        <f t="shared" si="27"/>
+        <f>F176/(SUM($F$7:$F$184))</f>
         <v>6.3291139240506328E-3</v>
       </c>
       <c r="H176">
         <v>3</v>
       </c>
       <c r="I176" s="7">
-        <f t="shared" si="28"/>
+        <f>H176/(SUM($H$7:$H$184))</f>
         <v>3.8461538461538464E-3</v>
       </c>
       <c r="J176" s="5">
-        <f t="shared" si="29"/>
+        <f>E176/(G176+I176)</f>
         <v>0.26359636645969381</v>
       </c>
     </row>
@@ -7635,29 +7635,29 @@
         <v>3</v>
       </c>
       <c r="D177" s="6">
-        <f t="shared" si="25"/>
+        <f>(B177+C177)/2</f>
         <v>3</v>
       </c>
       <c r="E177" s="7">
-        <f t="shared" si="26"/>
+        <f>D177/(SUM($D$7:$D$184))</f>
         <v>2.682163611980331E-3</v>
       </c>
       <c r="F177">
         <v>5</v>
       </c>
       <c r="G177" s="7">
-        <f t="shared" si="27"/>
+        <f>F177/(SUM($F$7:$F$184))</f>
         <v>5.2742616033755272E-3</v>
       </c>
       <c r="H177">
         <v>4</v>
       </c>
       <c r="I177" s="7">
-        <f t="shared" si="28"/>
+        <f>H177/(SUM($H$7:$H$184))</f>
         <v>5.1282051282051282E-3</v>
       </c>
       <c r="J177" s="5">
-        <f t="shared" si="29"/>
+        <f>E177/(G177+I177)</f>
         <v>0.2578391915292168</v>
       </c>
     </row>
@@ -7672,29 +7672,29 @@
         <v>3</v>
       </c>
       <c r="D178" s="6">
-        <f t="shared" si="25"/>
+        <f>(B178+C178)/2</f>
         <v>3</v>
       </c>
       <c r="E178" s="7">
-        <f t="shared" si="26"/>
+        <f>D178/(SUM($D$7:$D$184))</f>
         <v>2.682163611980331E-3</v>
       </c>
       <c r="F178">
         <v>6</v>
       </c>
       <c r="G178" s="7">
-        <f t="shared" si="27"/>
+        <f>F178/(SUM($F$7:$F$184))</f>
         <v>6.3291139240506328E-3</v>
       </c>
       <c r="H178">
         <v>4</v>
       </c>
       <c r="I178" s="7">
-        <f t="shared" si="28"/>
+        <f>H178/(SUM($H$7:$H$184))</f>
         <v>5.1282051282051282E-3</v>
       </c>
       <c r="J178" s="5">
-        <f t="shared" si="29"/>
+        <f>E178/(G178+I178)</f>
         <v>0.23410045576519548</v>
       </c>
     </row>
@@ -7709,29 +7709,29 @@
         <v>3</v>
       </c>
       <c r="D179" s="6">
-        <f t="shared" si="25"/>
+        <f>(B179+C179)/2</f>
         <v>3</v>
       </c>
       <c r="E179" s="7">
-        <f t="shared" si="26"/>
+        <f>D179/(SUM($D$7:$D$184))</f>
         <v>2.682163611980331E-3</v>
       </c>
       <c r="F179">
         <v>7</v>
       </c>
       <c r="G179" s="7">
-        <f t="shared" si="27"/>
+        <f>F179/(SUM($F$7:$F$184))</f>
         <v>7.3839662447257384E-3</v>
       </c>
       <c r="H179">
         <v>6</v>
       </c>
       <c r="I179" s="7">
-        <f t="shared" si="28"/>
+        <f>H179/(SUM($H$7:$H$184))</f>
         <v>7.6923076923076927E-3</v>
       </c>
       <c r="J179" s="5">
-        <f t="shared" si="29"/>
+        <f>E179/(G179+I179)</f>
         <v>0.17790626670638104</v>
       </c>
     </row>
@@ -7746,29 +7746,29 @@
         <v>4</v>
       </c>
       <c r="D180" s="6">
-        <f t="shared" si="25"/>
+        <f>(B180+C180)/2</f>
         <v>4</v>
       </c>
       <c r="E180" s="7">
-        <f t="shared" si="26"/>
+        <f>D180/(SUM($D$7:$D$184))</f>
         <v>3.5762181493071078E-3</v>
       </c>
       <c r="F180">
         <v>9</v>
       </c>
       <c r="G180" s="7">
-        <f t="shared" si="27"/>
+        <f>F180/(SUM($F$7:$F$184))</f>
         <v>9.4936708860759497E-3</v>
       </c>
       <c r="H180">
         <v>9</v>
       </c>
       <c r="I180" s="7">
-        <f t="shared" si="28"/>
+        <f>H180/(SUM($H$7:$H$184))</f>
         <v>1.1538461538461539E-2</v>
       </c>
       <c r="J180" s="5">
-        <f t="shared" si="29"/>
+        <f>E180/(G180+I180)</f>
         <v>0.17003592774714812</v>
       </c>
     </row>
@@ -7783,29 +7783,29 @@
         <v>3</v>
       </c>
       <c r="D181" s="6">
-        <f t="shared" si="25"/>
+        <f>(B181+C181)/2</f>
         <v>3</v>
       </c>
       <c r="E181" s="7">
-        <f t="shared" si="26"/>
+        <f>D181/(SUM($D$7:$D$184))</f>
         <v>2.682163611980331E-3</v>
       </c>
       <c r="F181">
         <v>7</v>
       </c>
       <c r="G181" s="7">
-        <f t="shared" si="27"/>
+        <f>F181/(SUM($F$7:$F$184))</f>
         <v>7.3839662447257384E-3</v>
       </c>
       <c r="H181">
         <v>7</v>
       </c>
       <c r="I181" s="7">
-        <f t="shared" si="28"/>
+        <f>H181/(SUM($H$7:$H$184))</f>
         <v>8.9743589743589737E-3</v>
       </c>
       <c r="J181" s="5">
-        <f t="shared" si="29"/>
+        <f>E181/(G181+I181)</f>
         <v>0.16396321604189285</v>
       </c>
     </row>
@@ -7820,29 +7820,29 @@
         <v>3</v>
       </c>
       <c r="D182" s="6">
-        <f t="shared" si="25"/>
+        <f>(B182+C182)/2</f>
         <v>3</v>
       </c>
       <c r="E182" s="7">
-        <f t="shared" si="26"/>
+        <f>D182/(SUM($D$7:$D$184))</f>
         <v>2.682163611980331E-3</v>
       </c>
       <c r="F182">
         <v>6</v>
       </c>
       <c r="G182" s="7">
-        <f t="shared" si="27"/>
+        <f>F182/(SUM($F$7:$F$184))</f>
         <v>6.3291139240506328E-3</v>
       </c>
       <c r="H182">
         <v>8</v>
       </c>
       <c r="I182" s="7">
-        <f t="shared" si="28"/>
+        <f>H182/(SUM($H$7:$H$184))</f>
         <v>1.0256410256410256E-2</v>
       </c>
       <c r="J182" s="5">
-        <f t="shared" si="29"/>
+        <f>E182/(G182+I182)</f>
         <v>0.16171714458926417</v>
       </c>
     </row>
@@ -7857,29 +7857,29 @@
         <v>2</v>
       </c>
       <c r="D183" s="6">
-        <f t="shared" si="25"/>
+        <f>(B183+C183)/2</f>
         <v>2</v>
       </c>
       <c r="E183" s="7">
-        <f t="shared" si="26"/>
+        <f>D183/(SUM($D$7:$D$184))</f>
         <v>1.7881090746535539E-3</v>
       </c>
       <c r="F183">
         <v>5</v>
       </c>
       <c r="G183" s="7">
-        <f t="shared" si="27"/>
+        <f>F183/(SUM($F$7:$F$184))</f>
         <v>5.2742616033755272E-3</v>
       </c>
       <c r="H183">
         <v>5</v>
       </c>
       <c r="I183" s="7">
-        <f t="shared" si="28"/>
+        <f>H183/(SUM($H$7:$H$184))</f>
         <v>6.41025641025641E-3</v>
       </c>
       <c r="J183" s="5">
-        <f t="shared" si="29"/>
+        <f>E183/(G183+I183)</f>
         <v>0.15303233497243332</v>
       </c>
     </row>
@@ -7894,36 +7894,36 @@
         <v>2</v>
       </c>
       <c r="D184" s="6">
-        <f t="shared" si="25"/>
+        <f>(B184+C184)/2</f>
         <v>2</v>
       </c>
       <c r="E184" s="7">
-        <f t="shared" si="26"/>
+        <f>D184/(SUM($D$7:$D$184))</f>
         <v>1.7881090746535539E-3</v>
       </c>
       <c r="F184">
         <v>6</v>
       </c>
       <c r="G184" s="7">
-        <f t="shared" si="27"/>
+        <f>F184/(SUM($F$7:$F$184))</f>
         <v>6.3291139240506328E-3</v>
       </c>
       <c r="H184">
         <v>5</v>
       </c>
       <c r="I184" s="7">
-        <f t="shared" si="28"/>
+        <f>H184/(SUM($H$7:$H$184))</f>
         <v>6.41025641025641E-3</v>
       </c>
       <c r="J184" s="5">
-        <f t="shared" si="29"/>
+        <f>E184/(G184+I184)</f>
         <v>0.14036086774541653</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A6:J184">
-    <sortState ref="A6:J183">
-      <sortCondition descending="1" ref="J5:J183"/>
+    <sortState ref="A7:J184">
+      <sortCondition descending="1" ref="J6:J184"/>
     </sortState>
   </autoFilter>
   <mergeCells count="1">
